--- a/js_front_27.02.xlsx
+++ b/js_front_27.02.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4420" uniqueCount="2656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4431" uniqueCount="2666">
   <si>
     <t>Exercise
 Introduction</t>
@@ -24731,6 +24731,72 @@
   </si>
   <si>
     <t>Instead of</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">diff between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git branch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git branch -a</t>
+    </r>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Shows</t>
+  </si>
+  <si>
+    <t>Only local branches</t>
+  </si>
+  <si>
+    <t>git branch -a</t>
+  </si>
+  <si>
+    <t>Local + Remote branches</t>
+  </si>
+  <si>
+    <t>Delete branch</t>
+  </si>
+  <si>
+    <t>1 Go to your repository.</t>
+  </si>
+  <si>
+    <t>2 Click on the Branches tab (next to the Code tab)</t>
+  </si>
+  <si>
+    <t>3 Click the trash icon next to the branch you want to delete</t>
   </si>
 </sst>
 </file>
@@ -25568,7 +25634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -25799,6 +25865,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -26630,7 +26698,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -26650,7 +26718,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -27588,7 +27656,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -27608,7 +27676,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -27784,7 +27852,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -27804,7 +27872,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -27839,7 +27907,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -27859,7 +27927,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -34926,10 +34994,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J369"/>
+  <dimension ref="A1:J381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A373" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B382" sqref="B382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -36751,7 +36819,7 @@
       <c r="D350" s="29"/>
     </row>
     <row r="351" spans="2:5">
-      <c r="B351" t="s">
+      <c r="B351" s="2" t="s">
         <v>2638</v>
       </c>
     </row>
@@ -36825,9 +36893,67 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="369" spans="3:3">
+    <row r="369" spans="1:6">
       <c r="C369" s="16" t="s">
         <v>2645</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="B374" s="132" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C374" s="7"/>
+      <c r="D374" s="132" t="s">
+        <v>2658</v>
+      </c>
+      <c r="E374" s="18"/>
+      <c r="F374" s="7"/>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="B375" s="172" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C375" s="38"/>
+      <c r="D375" s="39" t="s">
+        <v>2659</v>
+      </c>
+      <c r="E375" s="37"/>
+      <c r="F375" s="38"/>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="B376" s="173" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C376" s="11"/>
+      <c r="D376" s="10" t="s">
+        <v>2661</v>
+      </c>
+      <c r="E376" s="26"/>
+      <c r="F376" s="11"/>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" s="2" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="B379" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="B380" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="B381" t="s">
+        <v>2665</v>
       </c>
     </row>
   </sheetData>

--- a/js_front_27.02.xlsx
+++ b/js_front_27.02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10008" tabRatio="751" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10008" tabRatio="751" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,15 @@
     <sheet name="Work 1" sheetId="13" r:id="rId13"/>
     <sheet name="Syn_Fun" sheetId="16" r:id="rId14"/>
     <sheet name="Git" sheetId="17" r:id="rId15"/>
+    <sheet name="Exer Syntax" sheetId="19" r:id="rId16"/>
+    <sheet name="Arrays Strings" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4620" uniqueCount="2817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="2961">
   <si>
     <t>Exercise
 Introduction</t>
@@ -26961,18 +26963,1719 @@
   </si>
   <si>
     <t>You fix the conflict manually</t>
+  </si>
+  <si>
+    <t>If there is no diff between local repo and remote repo</t>
+  </si>
+  <si>
+    <t>If you run:</t>
+  </si>
+  <si>
+    <t>git pull origin main</t>
+  </si>
+  <si>
+    <r>
+      <t>and there is no difference between your remote repo (GitHub) and your local repo —</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nothing will happen</t>
+    </r>
+  </si>
+  <si>
+    <t>What Exactly Happens?</t>
+  </si>
+  <si>
+    <t>Git will check if there are any new changes on the remote repository</t>
+  </si>
+  <si>
+    <t>If there are no new commits or no new files: ✅ Git will simply say:</t>
+  </si>
+  <si>
+    <t>Already up to date.</t>
+  </si>
+  <si>
+    <t>What Happens if There ARE New Changes?</t>
+  </si>
+  <si>
+    <t>If there are new commits on GitHub:</t>
+  </si>
+  <si>
+    <t>1 Git will download all the new changes.</t>
+  </si>
+  <si>
+    <t>2 Automatically merge them into your local repo.</t>
+  </si>
+  <si>
+    <t>3 Your terminal will show:</t>
+  </si>
+  <si>
+    <t>Updating f70cf7a..6d6815d</t>
+  </si>
+  <si>
+    <t>Fast-forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> second_file.txt | 1 line added</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 file changed</t>
+  </si>
+  <si>
+    <t>Rule of Git:</t>
+  </si>
+  <si>
+    <t>No changes</t>
+  </si>
+  <si>
+    <t>New changes</t>
+  </si>
+  <si>
+    <t>Git downloads and merges</t>
+  </si>
+  <si>
+    <t>Conflict</t>
+  </si>
+  <si>
+    <t>Nothing happens</t>
+  </si>
+  <si>
+    <t>You need to fix conflicts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Diff between </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git pull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and git </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pull origin main</t>
+    </r>
+  </si>
+  <si>
+    <t>What It Does</t>
+  </si>
+  <si>
+    <t>When to Use</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulls from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>default remote</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and branch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (the one you set</t>
+    </r>
+  </si>
+  <si>
+    <t>remote and main branch explicitly</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulls changes from the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>origin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When you're </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>already working on the</t>
+    </r>
+  </si>
+  <si>
+    <t>remote or branch is</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git push -u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">branch and have used </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git push -u</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>origin main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> before</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When you're </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not sure what the default</t>
+    </r>
+  </si>
+  <si>
+    <t>How to See Older Versions of Your File Locally?</t>
+  </si>
+  <si>
+    <t>Git tracks every version of your file in the local repository — but it hides the older versions like a ninja</t>
+  </si>
+  <si>
+    <t>See All File Versions</t>
+  </si>
+  <si>
+    <t>Run this command in your terminal:</t>
+  </si>
+  <si>
+    <t>git log -- js_front_27.02.xlsx</t>
+  </si>
+  <si>
+    <t>commit 3802abf6bd8c33de4ddcdf58405d6a30e1a16ad2 (HEAD -&gt; main, origin/main, origin/HEAD)</t>
+  </si>
+  <si>
+    <t>Author: Vasil &lt;vasil.s.vasilev@abv.bg&gt;</t>
+  </si>
+  <si>
+    <t>Date:   Thu Feb 27 17:28:39 2025 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    last for 27.02</t>
+  </si>
+  <si>
+    <t>commit 4062c90ed7906744d7973adb99fed2b17cf75f30</t>
+  </si>
+  <si>
+    <t>Date:   Thu Feb 27 12:33:53 2025 +0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    second test</t>
+  </si>
+  <si>
+    <t>How to add new folder in locally and Github</t>
+  </si>
+  <si>
+    <t>manually create the folder in Windows Explorer</t>
+  </si>
+  <si>
+    <r>
+      <t>git commit -m "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Added files into folder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doesn't care</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>how</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you create folders — manually or with terminal commands</t>
+    </r>
+  </si>
+  <si>
+    <t>What matters to Git is:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You have made some changes in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>folder structure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You track those changes with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git add .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>You save those changes with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> git commit -m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You upload those changes with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git push</t>
+    </r>
+  </si>
+  <si>
+    <t>Arrays
+Arrays</t>
+  </si>
+  <si>
+    <t>Exercise
+Syntax</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t> }</t>
+  </si>
+  <si>
+    <t>        'chop': (n) =&gt; n / 2,  </t>
+  </si>
+  <si>
+    <t>        'dice':  (n) =&gt; Math.sqrt(n),</t>
+  </si>
+  <si>
+    <t>        'spice':  (n) =&gt; n + 1,</t>
+  </si>
+  <si>
+    <t>        'bake':  (n) =&gt; n * 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        'fillet':  (n) =&gt; n * 0.8,         </t>
+  </si>
+  <si>
+    <t>        console.log(num);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>actions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = [op1, op2, op3, op4, op5] // Like list</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>options</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    for (let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>actions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>options</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>] // This is a function</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        num = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>option</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> solve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('32', 'chop', 'chop', 'chop', 'chop', 'chop')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> function </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, op1, op2, op3, op4, op5) {</t>
+    </r>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <r>
+      <t>console.log(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2, 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2, 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x, y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) =&gt; x + y;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">add </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= lambda </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x, y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: x + y</t>
+    </r>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>=&gt;</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>nums = [1, 2, 3, 4]</t>
+  </si>
+  <si>
+    <t>print(even)</t>
+  </si>
+  <si>
+    <t>[2, 4]</t>
+  </si>
+  <si>
+    <t>let nums = [1, 2, 3, 4];</t>
+  </si>
+  <si>
+    <t>console.log(even);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">() function </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>does not return what the lambda function returns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Instead, it returns the elements from the list </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>where the lambda function returns True</t>
+    </r>
+  </si>
+  <si>
+    <t>print(result)</t>
+  </si>
+  <si>
+    <t>[False, True, False, True]</t>
+  </si>
+  <si>
+    <r>
+      <t>result = list(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(lambda x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x % 2 == 0, nums))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let even = nums.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x % 2 === 0);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>even = list(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(lambda </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: x % 2 == 0, nums))</t>
+    </r>
+  </si>
+  <si>
+    <t>Първи индекс</t>
+  </si>
+  <si>
+    <t>let cars = ['BMW', 'Audi', 'VW'];</t>
+  </si>
+  <si>
+    <t>let firstChar = cars[0];</t>
+  </si>
+  <si>
+    <t>console.log(firstChar);</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>Последен индекс</t>
+  </si>
+  <si>
+    <t>let firstChar = cars[cars.length - 1];</t>
+  </si>
+  <si>
+    <t>VW</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Accessing indexes that do not exist in the array returns </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>undefined</t>
+    </r>
+  </si>
+  <si>
+    <t>console.log(cars[3]);</t>
+  </si>
+  <si>
+    <t>console.log(cars[-1]);</t>
+  </si>
+  <si>
+    <t>Destructuring Syntax</t>
+  </si>
+  <si>
+    <t>let numbers = [10, 20, 30, 40, 50];</t>
+  </si>
+  <si>
+    <t>let [a, b, ...elems] = numbers;</t>
+  </si>
+  <si>
+    <t>console.log(b);</t>
+  </si>
+  <si>
+    <t>console.log(elems);</t>
+  </si>
+  <si>
+    <t>[30, 40, 50]</t>
+  </si>
+  <si>
+    <t>rest operator</t>
+  </si>
+  <si>
+    <t>Expression that unpacks values from arrays or objects, into distinct variables</t>
+  </si>
+  <si>
+    <t>For of</t>
+  </si>
+  <si>
+    <t>let output = '';</t>
+  </si>
+  <si>
+    <t>for (let number of numbers) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    output += `${number} `;</t>
+  </si>
+  <si>
+    <t>console.log(output);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 20 30 40 50 </t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>console.log(numbers.length);</t>
+  </si>
+  <si>
+    <t>console.log(numbers.pop());</t>
+  </si>
+  <si>
+    <t>console.log(numbers);</t>
+  </si>
+  <si>
+    <t>(4) [10, 20, 30, 40]</t>
+  </si>
+  <si>
+    <t>console.log(numbers.push(60));</t>
+  </si>
+  <si>
+    <t>(6) [10, 20, 30, 40, 50, 60]</t>
+  </si>
+  <si>
+    <t>numbers.push(60);</t>
+  </si>
+  <si>
+    <t># inplace</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The push() method adds one or more elements to the end of an array and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>returns the new length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the array</t>
+    </r>
+  </si>
+  <si>
+    <t>Push (append)</t>
+  </si>
+  <si>
+    <t>Shift (popleft)</t>
+  </si>
+  <si>
+    <t>The shift() method removes the first element from an array and returns that removed element</t>
+  </si>
+  <si>
+    <t>This method changes the length of the array</t>
+  </si>
+  <si>
+    <t>(4) [20, 30, 40, 50]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I work </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inplace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> too</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console.log(numbers.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console.log(numbers.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The unshift() method </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>adds one or more elements to the beginning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of an array and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>returns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>new length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the array</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numbers.unshift(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console.log(numbers.unshift(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(7) [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 10, 20, 30, 40, 50]</t>
+    </r>
+  </si>
+  <si>
+    <t>Unshift (appendleft)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="69">
+  <fonts count="75">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -27497,6 +29200,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFA626A4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA626A4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -27821,44 +29546,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -27881,10 +29606,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -27896,24 +29621,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -27923,7 +29648,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -27931,16 +29656,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -27948,14 +29673,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -27969,10 +29694,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -27982,92 +29707,122 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="51">
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF92D050"/>
@@ -28307,14 +30062,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF7D7DFF"/>
+      <color rgb="FFA47A20"/>
+      <color rgb="FFA626A4"/>
+      <color rgb="FFCCA504"/>
       <color rgb="FF179A77"/>
-      <color rgb="FFCCA504"/>
-      <color rgb="FF7D7DFF"/>
       <color rgb="FFDA7BB9"/>
       <color rgb="FF1AB188"/>
-      <color rgb="FFA626A4"/>
       <color rgb="FF73F2D0"/>
-      <color rgb="FFA47A20"/>
       <color rgb="FF181818"/>
       <color rgb="FF1F1F1F"/>
     </mruColors>
@@ -28894,7 +30649,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -28914,7 +30669,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -29852,7 +31607,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -29872,7 +31627,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -30048,7 +31803,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -30068,7 +31823,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -30103,7 +31858,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -30123,7 +31878,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -30511,6 +32266,58 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>283031</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>8709</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1502231" y="7802880"/>
+          <a:ext cx="1554478" cy="121920"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -30799,7 +32606,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -30941,9 +32748,13 @@
         <v>1755</v>
       </c>
       <c r="C6" s="134"/>
-      <c r="D6" s="136"/>
+      <c r="D6" s="136" t="s">
+        <v>2876</v>
+      </c>
       <c r="E6" s="134"/>
-      <c r="F6" s="136"/>
+      <c r="F6" s="136" t="s">
+        <v>2875</v>
+      </c>
       <c r="G6" s="134"/>
       <c r="H6" s="136"/>
       <c r="I6" s="134"/>
@@ -31175,223 +32986,243 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2 D2 D4 D6 D8 D10 F8 F10 F2 F4">
-    <cfRule type="expression" dxfId="46" priority="101">
+    <cfRule type="expression" dxfId="50" priority="105">
       <formula>XEZ40=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="45" priority="98">
+    <cfRule type="expression" dxfId="49" priority="102">
       <formula>B40=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="expression" dxfId="44" priority="97">
+    <cfRule type="expression" dxfId="48" priority="101">
       <formula>D40=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="43" priority="96">
+    <cfRule type="expression" dxfId="47" priority="100">
       <formula>F40=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="42" priority="95">
+    <cfRule type="expression" dxfId="46" priority="99">
       <formula>F42=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="41" priority="94">
+    <cfRule type="expression" dxfId="45" priority="98">
       <formula>D42=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="40" priority="93">
+    <cfRule type="expression" dxfId="44" priority="97">
       <formula>B42=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="39" priority="90">
+    <cfRule type="expression" dxfId="43" priority="94">
       <formula>XEZ42=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="38" priority="86">
+    <cfRule type="expression" dxfId="42" priority="90">
       <formula>B44=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="37" priority="85">
+    <cfRule type="expression" dxfId="41" priority="89">
       <formula>D44=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="36" priority="84">
+    <cfRule type="expression" dxfId="40" priority="88">
       <formula>F44=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="35" priority="83">
+    <cfRule type="expression" dxfId="39" priority="87">
       <formula>F46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="34" priority="25">
+    <cfRule type="expression" dxfId="38" priority="29">
       <formula>B48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="33" priority="80">
+    <cfRule type="expression" dxfId="37" priority="84">
       <formula>F48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="32" priority="79">
+    <cfRule type="expression" dxfId="36" priority="83">
       <formula>D48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="31" priority="77">
+    <cfRule type="expression" dxfId="35" priority="81">
       <formula>D46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="30" priority="76">
+    <cfRule type="expression" dxfId="34" priority="80">
       <formula>B46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="29" priority="75">
+    <cfRule type="expression" dxfId="33" priority="79">
       <formula>B48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="28" priority="64">
+    <cfRule type="expression" dxfId="32" priority="68">
       <formula>XEZ46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="27" priority="60">
+    <cfRule type="expression" dxfId="31" priority="64">
       <formula>B46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="26" priority="59">
+    <cfRule type="expression" dxfId="30" priority="63">
       <formula>D46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="25" priority="58">
+    <cfRule type="expression" dxfId="29" priority="62">
       <formula>F46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="24" priority="57">
+    <cfRule type="expression" dxfId="28" priority="61">
       <formula>F48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="23" priority="56">
+    <cfRule type="expression" dxfId="27" priority="60">
       <formula>D48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="22" priority="55">
+    <cfRule type="expression" dxfId="26" priority="59">
       <formula>B48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="21" priority="29">
+    <cfRule type="expression" dxfId="25" priority="33">
       <formula>B40=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="20" priority="28">
+    <cfRule type="expression" dxfId="24" priority="32">
       <formula>B42=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="19" priority="27">
+    <cfRule type="expression" dxfId="23" priority="31">
       <formula>B44=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="18" priority="24">
+    <cfRule type="expression" dxfId="22" priority="28">
       <formula>B46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="21" priority="27">
       <formula>B48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="expression" dxfId="16" priority="21">
+    <cfRule type="expression" dxfId="20" priority="25">
       <formula>D40=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="19" priority="24">
       <formula>D42=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="14" priority="19">
+    <cfRule type="expression" dxfId="18" priority="23">
       <formula>D44=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>D48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>D46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>D48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="14" priority="17">
       <formula>F40=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>F42=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>F44=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>F48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>F46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>F48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>XEZ46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>XEZ46=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>XFD44=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>XFD44=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>XEZ48=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>XEZ46=1</formula>
+      <formula>XFD44=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
@@ -31399,14 +33230,14 @@
       <formula>XFD44=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="D6">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>XFD44=1</formula>
+      <formula>XFB44=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
+  <conditionalFormatting sqref="D6">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>XEZ48=1</formula>
+      <formula>XFB44=1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -31424,6 +33255,8 @@
     <hyperlink ref="L4" location="'Work 1'!A1" display="WShop Static Web - Part 1"/>
     <hyperlink ref="B6" location="Syn_Fun!A1" display="Syntax Fundamentals"/>
     <hyperlink ref="B10" location="Git!A1" display="Git"/>
+    <hyperlink ref="F6" location="'Arrays Strings'!A1" display="'Arrays Strings'!A1"/>
+    <hyperlink ref="D6" location="'Exer Syntax'!A1" display="'Exer Syntax'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -37190,10 +39023,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K561"/>
+  <dimension ref="A1:K628"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A491" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F563" sqref="F563"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -38864,1318 +40697,1754 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:5">
       <c r="A289" s="2" t="s">
         <v>2497</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:5">
       <c r="B290" t="s">
         <v>2498</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:5">
       <c r="B291" t="s">
         <v>2499</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:5">
       <c r="B293" s="164" t="s">
         <v>2500</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="2" t="s">
+    <row r="294" spans="1:5">
+      <c r="B294" s="164"/>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="B295" s="2" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="B296" s="164"/>
+      <c r="C296" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="B297" s="164"/>
+      <c r="D297" s="170" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="B298" s="164"/>
+      <c r="C298" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D298" s="170"/>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="B299" s="164"/>
+      <c r="D299" s="170"/>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="B300" s="164"/>
+      <c r="C300" t="s">
+        <v>2821</v>
+      </c>
+      <c r="D300" s="170"/>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="B301" s="164"/>
+      <c r="D301" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="B302" s="164"/>
+      <c r="D302" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="B303" s="164"/>
+      <c r="D303" s="170"/>
+      <c r="E303" s="187" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="B304" s="164"/>
+      <c r="D304" s="170"/>
+    </row>
+    <row r="305" spans="2:8">
+      <c r="B305" s="2" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D305" s="170"/>
+    </row>
+    <row r="306" spans="2:8">
+      <c r="B306" s="164"/>
+      <c r="C306" t="s">
+        <v>2826</v>
+      </c>
+      <c r="D306" s="170"/>
+    </row>
+    <row r="307" spans="2:8">
+      <c r="B307" s="164"/>
+      <c r="D307" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="308" spans="2:8">
+      <c r="B308" s="164"/>
+      <c r="D308" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="309" spans="2:8">
+      <c r="B309" s="164"/>
+      <c r="D309" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="310" spans="2:8">
+      <c r="B310" s="164"/>
+      <c r="E310" s="187" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="311" spans="2:8">
+      <c r="B311" s="164"/>
+      <c r="E311" s="187" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="312" spans="2:8">
+      <c r="B312" s="164"/>
+      <c r="E312" s="187" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="313" spans="2:8">
+      <c r="B313" s="164"/>
+      <c r="E313" s="187" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="314" spans="2:8">
+      <c r="B314" s="164"/>
+      <c r="E314" s="183"/>
+    </row>
+    <row r="315" spans="2:8">
+      <c r="B315" s="2" t="s">
+        <v>2834</v>
+      </c>
+      <c r="E315" s="183"/>
+    </row>
+    <row r="316" spans="2:8">
+      <c r="B316" s="164"/>
+      <c r="C316" s="184" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D316" s="132" t="s">
+        <v>2809</v>
+      </c>
+      <c r="E316" s="7"/>
+      <c r="F316" s="132" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G316" s="18"/>
+      <c r="H316" s="7"/>
+    </row>
+    <row r="317" spans="2:8">
+      <c r="B317" s="164"/>
+      <c r="C317" s="185" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D317" s="8" t="s">
+        <v>2835</v>
+      </c>
+      <c r="E317" s="9"/>
+      <c r="F317" s="8" t="s">
+        <v>2839</v>
+      </c>
+      <c r="G317" s="19"/>
+      <c r="H317" s="9"/>
+    </row>
+    <row r="318" spans="2:8">
+      <c r="B318" s="164"/>
+      <c r="C318" s="185" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D318" s="8" t="s">
+        <v>2836</v>
+      </c>
+      <c r="E318" s="9"/>
+      <c r="F318" s="8" t="s">
+        <v>2837</v>
+      </c>
+      <c r="G318" s="19"/>
+      <c r="H318" s="9"/>
+    </row>
+    <row r="319" spans="2:8">
+      <c r="B319" s="164"/>
+      <c r="C319" s="186" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D319" s="10" t="s">
+        <v>2838</v>
+      </c>
+      <c r="E319" s="11"/>
+      <c r="F319" s="10" t="s">
+        <v>2840</v>
+      </c>
+      <c r="G319" s="26"/>
+      <c r="H319" s="11"/>
+    </row>
+    <row r="320" spans="2:8">
+      <c r="B320" s="164"/>
+      <c r="D320" s="170"/>
+    </row>
+    <row r="321" spans="1:11">
+      <c r="A321" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B321" s="164"/>
+      <c r="D321" s="170"/>
+    </row>
+    <row r="322" spans="1:11">
+      <c r="B322" s="164"/>
+      <c r="D322" s="170"/>
+    </row>
+    <row r="323" spans="1:11">
+      <c r="B323" s="109" t="s">
+        <v>2654</v>
+      </c>
+      <c r="C323" s="38"/>
+      <c r="D323" s="109" t="s">
+        <v>2842</v>
+      </c>
+      <c r="E323" s="37"/>
+      <c r="F323" s="37"/>
+      <c r="G323" s="38"/>
+      <c r="H323" s="109" t="s">
+        <v>2843</v>
+      </c>
+      <c r="I323" s="37"/>
+      <c r="J323" s="37"/>
+      <c r="K323" s="38"/>
+    </row>
+    <row r="324" spans="1:11">
+      <c r="B324" s="190" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C324" s="9"/>
+      <c r="D324" s="8" t="s">
+        <v>2844</v>
+      </c>
+      <c r="E324" s="19"/>
+      <c r="F324" s="19"/>
+      <c r="G324" s="9"/>
+      <c r="H324" s="8" t="s">
+        <v>2848</v>
+      </c>
+      <c r="I324" s="19"/>
+      <c r="J324" s="19"/>
+      <c r="K324" s="9"/>
+    </row>
+    <row r="325" spans="1:11">
+      <c r="B325" s="8"/>
+      <c r="C325" s="9"/>
+      <c r="D325" s="189" t="s">
+        <v>2845</v>
+      </c>
+      <c r="E325" s="19"/>
+      <c r="F325" s="19"/>
+      <c r="G325" s="9"/>
+      <c r="H325" s="8" t="s">
+        <v>2851</v>
+      </c>
+      <c r="I325" s="19"/>
+      <c r="J325" s="19"/>
+      <c r="K325" s="9"/>
+    </row>
+    <row r="326" spans="1:11">
+      <c r="B326" s="188"/>
+      <c r="C326" s="11"/>
+      <c r="D326" s="10" t="s">
+        <v>2850</v>
+      </c>
+      <c r="E326" s="26"/>
+      <c r="F326" s="26"/>
+      <c r="G326" s="11"/>
+      <c r="H326" s="191" t="s">
+        <v>2852</v>
+      </c>
+      <c r="I326" s="26"/>
+      <c r="J326" s="26"/>
+      <c r="K326" s="11"/>
+    </row>
+    <row r="327" spans="1:11">
+      <c r="B327" s="190" t="s">
+        <v>2819</v>
+      </c>
+      <c r="C327" s="9"/>
+      <c r="D327" s="8" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E327" s="19"/>
+      <c r="F327" s="19"/>
+      <c r="G327" s="9"/>
+      <c r="H327" s="8" t="s">
+        <v>2853</v>
+      </c>
+      <c r="I327" s="19"/>
+      <c r="J327" s="19"/>
+      <c r="K327" s="9"/>
+    </row>
+    <row r="328" spans="1:11">
+      <c r="B328" s="188"/>
+      <c r="C328" s="11"/>
+      <c r="D328" s="10" t="s">
+        <v>2846</v>
+      </c>
+      <c r="E328" s="26"/>
+      <c r="F328" s="26"/>
+      <c r="G328" s="11"/>
+      <c r="H328" s="10" t="s">
+        <v>2849</v>
+      </c>
+      <c r="I328" s="26"/>
+      <c r="J328" s="26"/>
+      <c r="K328" s="11"/>
+    </row>
+    <row r="329" spans="1:11">
+      <c r="B329" s="164"/>
+      <c r="D329" s="170"/>
+    </row>
+    <row r="330" spans="1:11">
+      <c r="A330" s="2" t="s">
         <v>2543</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
-      <c r="B296" t="s">
+    <row r="331" spans="1:11">
+      <c r="B331" t="s">
         <v>2544</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
-      <c r="B297" t="s">
+    <row r="332" spans="1:11">
+      <c r="B332" t="s">
         <v>2545</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
-      <c r="B298" t="s">
+    <row r="333" spans="1:11">
+      <c r="B333" t="s">
         <v>2546</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
-      <c r="B300" t="s">
+    <row r="335" spans="1:11">
+      <c r="B335" t="s">
         <v>2547</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
-      <c r="B301" t="s">
+    <row r="336" spans="1:11">
+      <c r="B336" t="s">
         <v>2548</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
-      <c r="B302" t="s">
+    <row r="337" spans="1:3">
+      <c r="B337" t="s">
         <v>2549</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
-      <c r="A304" s="2" t="s">
+    <row r="339" spans="1:3">
+      <c r="A339" s="2" t="s">
         <v>2566</v>
       </c>
     </row>
-    <row r="305" spans="2:3">
-      <c r="B305" t="s">
+    <row r="340" spans="1:3">
+      <c r="B340" t="s">
         <v>2567</v>
       </c>
     </row>
-    <row r="307" spans="2:3">
-      <c r="B307" t="s">
+    <row r="342" spans="1:3">
+      <c r="B342" t="s">
         <v>2568</v>
       </c>
     </row>
-    <row r="308" spans="2:3">
-      <c r="C308" s="164" t="s">
+    <row r="343" spans="1:3">
+      <c r="C343" s="164" t="s">
         <v>2569</v>
       </c>
     </row>
-    <row r="309" spans="2:3">
-      <c r="C309" s="164" t="s">
+    <row r="344" spans="1:3">
+      <c r="C344" s="164" t="s">
         <v>2570</v>
       </c>
     </row>
-    <row r="310" spans="2:3">
-      <c r="C310" t="s">
+    <row r="345" spans="1:3">
+      <c r="C345" t="s">
         <v>2571</v>
       </c>
     </row>
-    <row r="311" spans="2:3">
-      <c r="C311" s="170" t="s">
+    <row r="346" spans="1:3">
+      <c r="C346" s="170" t="s">
         <v>2392</v>
       </c>
     </row>
-    <row r="312" spans="2:3">
-      <c r="C312" s="164" t="s">
+    <row r="347" spans="1:3">
+      <c r="C347" s="164" t="s">
         <v>2572</v>
       </c>
     </row>
-    <row r="314" spans="2:3">
-      <c r="B314" t="s">
+    <row r="349" spans="1:3">
+      <c r="B349" t="s">
         <v>2573</v>
       </c>
     </row>
-    <row r="315" spans="2:3">
-      <c r="C315" s="164" t="s">
+    <row r="350" spans="1:3">
+      <c r="C350" s="164" t="s">
         <v>2574</v>
       </c>
     </row>
-    <row r="316" spans="2:3">
-      <c r="C316" s="164" t="s">
+    <row r="351" spans="1:3">
+      <c r="C351" s="164" t="s">
         <v>2575</v>
       </c>
     </row>
-    <row r="318" spans="2:3">
-      <c r="B318" t="s">
+    <row r="353" spans="1:5">
+      <c r="B353" t="s">
         <v>2576</v>
       </c>
     </row>
-    <row r="319" spans="2:3">
-      <c r="C319" t="s">
+    <row r="354" spans="1:5">
+      <c r="C354" t="s">
         <v>2577</v>
       </c>
     </row>
-    <row r="320" spans="2:3">
-      <c r="C320" t="s">
+    <row r="355" spans="1:5">
+      <c r="C355" t="s">
         <v>2578</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
-      <c r="C321" t="s">
+    <row r="356" spans="1:5">
+      <c r="C356" t="s">
         <v>2579</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
-      <c r="C323" t="s">
+    <row r="358" spans="1:5">
+      <c r="C358" t="s">
         <v>2580</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
-      <c r="D324" t="s">
+    <row r="359" spans="1:5">
+      <c r="D359" t="s">
         <v>2581</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
-      <c r="E325" s="170" t="s">
+    <row r="360" spans="1:5">
+      <c r="E360" s="170" t="s">
         <v>2582</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
-      <c r="B326" s="2" t="s">
+    <row r="361" spans="1:5">
+      <c r="B361" s="2" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
-      <c r="C327" t="s">
+    <row r="362" spans="1:5">
+      <c r="C362" t="s">
         <v>2583</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
-      <c r="C328" t="s">
+    <row r="363" spans="1:5">
+      <c r="C363" t="s">
         <v>2584</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
-      <c r="C329" t="s">
+    <row r="364" spans="1:5">
+      <c r="C364" t="s">
         <v>2585</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
-      <c r="C330" t="s">
+    <row r="365" spans="1:5">
+      <c r="C365" t="s">
         <v>2586</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
-      <c r="A332" s="2" t="s">
+    <row r="367" spans="1:5">
+      <c r="A367" s="2" t="s">
         <v>2587</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
-      <c r="B333" t="s">
+    <row r="368" spans="1:5">
+      <c r="B368" t="s">
         <v>2588</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
-      <c r="B334" t="s">
+    <row r="369" spans="2:3">
+      <c r="B369" t="s">
         <v>2589</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
-      <c r="B335" t="s">
+    <row r="370" spans="2:3">
+      <c r="B370" t="s">
         <v>2590</v>
       </c>
     </row>
-    <row r="337" spans="2:3">
-      <c r="B337" s="2" t="s">
+    <row r="372" spans="2:3">
+      <c r="B372" s="2" t="s">
         <v>2591</v>
       </c>
     </row>
-    <row r="338" spans="2:3">
-      <c r="C338" t="s">
+    <row r="373" spans="2:3">
+      <c r="C373" t="s">
         <v>2592</v>
       </c>
     </row>
-    <row r="339" spans="2:3">
-      <c r="C339" t="s">
+    <row r="374" spans="2:3">
+      <c r="C374" t="s">
         <v>2593</v>
       </c>
     </row>
-    <row r="340" spans="2:3">
-      <c r="C340" t="s">
+    <row r="375" spans="2:3">
+      <c r="C375" t="s">
         <v>2594</v>
       </c>
     </row>
-    <row r="342" spans="2:3">
-      <c r="B342" t="s">
+    <row r="377" spans="2:3">
+      <c r="B377" t="s">
         <v>2595</v>
       </c>
     </row>
-    <row r="343" spans="2:3">
-      <c r="C343" t="s">
+    <row r="378" spans="2:3">
+      <c r="C378" t="s">
         <v>2596</v>
       </c>
     </row>
-    <row r="344" spans="2:3">
-      <c r="C344" t="s">
+    <row r="379" spans="2:3">
+      <c r="C379" t="s">
         <v>2597</v>
       </c>
     </row>
-    <row r="345" spans="2:3">
-      <c r="C345" t="s">
+    <row r="380" spans="2:3">
+      <c r="C380" t="s">
         <v>2598</v>
       </c>
     </row>
-    <row r="346" spans="2:3">
-      <c r="C346" t="s">
+    <row r="381" spans="2:3">
+      <c r="C381" t="s">
         <v>2599</v>
       </c>
     </row>
-    <row r="347" spans="2:3">
-      <c r="C347" t="s">
+    <row r="382" spans="2:3">
+      <c r="C382" t="s">
         <v>2600</v>
       </c>
     </row>
-    <row r="348" spans="2:3">
-      <c r="C348" t="s">
+    <row r="383" spans="2:3">
+      <c r="C383" t="s">
         <v>2601</v>
       </c>
     </row>
-    <row r="350" spans="2:3">
-      <c r="B350" s="2" t="s">
+    <row r="385" spans="2:5">
+      <c r="B385" s="2" t="s">
         <v>2602</v>
       </c>
     </row>
-    <row r="351" spans="2:3">
-      <c r="C351" t="s">
+    <row r="386" spans="2:5">
+      <c r="C386" t="s">
         <v>2603</v>
       </c>
     </row>
-    <row r="352" spans="2:3">
-      <c r="C352" t="s">
+    <row r="387" spans="2:5">
+      <c r="C387" t="s">
         <v>2604</v>
       </c>
     </row>
-    <row r="354" spans="2:5">
-      <c r="B354" t="s">
+    <row r="389" spans="2:5">
+      <c r="B389" t="s">
         <v>2605</v>
       </c>
     </row>
-    <row r="356" spans="2:5">
-      <c r="C356" t="s">
+    <row r="391" spans="2:5">
+      <c r="C391" t="s">
         <v>2606</v>
       </c>
     </row>
-    <row r="357" spans="2:5">
-      <c r="D357" t="s">
+    <row r="392" spans="2:5">
+      <c r="D392" t="s">
         <v>2607</v>
       </c>
     </row>
-    <row r="358" spans="2:5">
-      <c r="C358" t="s">
+    <row r="393" spans="2:5">
+      <c r="C393" t="s">
         <v>2608</v>
-      </c>
-    </row>
-    <row r="359" spans="2:5">
-      <c r="D359" t="s">
-        <v>2609</v>
-      </c>
-    </row>
-    <row r="360" spans="2:5">
-      <c r="E360" s="16" t="s">
-        <v>2610</v>
-      </c>
-    </row>
-    <row r="361" spans="2:5">
-      <c r="D361" t="s">
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="362" spans="2:5">
-      <c r="E362" s="16" t="s">
-        <v>2612</v>
-      </c>
-    </row>
-    <row r="363" spans="2:5">
-      <c r="C363" t="s">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="364" spans="2:5">
-      <c r="E364" s="16" t="s">
-        <v>2614</v>
-      </c>
-    </row>
-    <row r="365" spans="2:5">
-      <c r="D365" t="s">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="366" spans="2:5">
-      <c r="C366" t="s">
-        <v>2616</v>
-      </c>
-    </row>
-    <row r="367" spans="2:5">
-      <c r="D367" t="s">
-        <v>2617</v>
-      </c>
-    </row>
-    <row r="368" spans="2:5">
-      <c r="E368" s="16" t="s">
-        <v>2389</v>
-      </c>
-    </row>
-    <row r="369" spans="3:5">
-      <c r="D369" t="s">
-        <v>2618</v>
-      </c>
-    </row>
-    <row r="370" spans="3:5">
-      <c r="E370" s="16" t="s">
-        <v>2619</v>
-      </c>
-    </row>
-    <row r="371" spans="3:5">
-      <c r="D371" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="372" spans="3:5">
-      <c r="E372" s="164" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="373" spans="3:5">
-      <c r="C373" t="s">
-        <v>2624</v>
-      </c>
-    </row>
-    <row r="374" spans="3:5">
-      <c r="E374" s="16" t="s">
-        <v>2622</v>
-      </c>
-    </row>
-    <row r="375" spans="3:5">
-      <c r="D375" t="s">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="376" spans="3:5">
-      <c r="C376" t="s">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="377" spans="3:5">
-      <c r="D377" t="s">
-        <v>2626</v>
-      </c>
-    </row>
-    <row r="378" spans="3:5">
-      <c r="D378" t="s">
-        <v>2627</v>
-      </c>
-    </row>
-    <row r="380" spans="3:5">
-      <c r="C380" t="s">
-        <v>2628</v>
-      </c>
-    </row>
-    <row r="381" spans="3:5">
-      <c r="D381" t="s">
-        <v>2629</v>
-      </c>
-    </row>
-    <row r="382" spans="3:5">
-      <c r="D382" s="16" t="s">
-        <v>2630</v>
-      </c>
-    </row>
-    <row r="383" spans="3:5">
-      <c r="D383" s="16" t="s">
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="384" spans="3:5">
-      <c r="D384" s="16" t="s">
-        <v>2632</v>
-      </c>
-    </row>
-    <row r="385" spans="2:5">
-      <c r="D385" s="29"/>
-    </row>
-    <row r="386" spans="2:5">
-      <c r="D386" s="29" t="s">
-        <v>2633</v>
-      </c>
-    </row>
-    <row r="387" spans="2:5">
-      <c r="D387" s="29"/>
-    </row>
-    <row r="388" spans="2:5">
-      <c r="B388" s="2" t="s">
-        <v>2635</v>
-      </c>
-    </row>
-    <row r="389" spans="2:5">
-      <c r="C389" t="s">
-        <v>2634</v>
-      </c>
-    </row>
-    <row r="390" spans="2:5">
-      <c r="C390" t="s">
-        <v>2636</v>
-      </c>
-    </row>
-    <row r="392" spans="2:5">
-      <c r="C392" t="s">
-        <v>2637</v>
-      </c>
-    </row>
-    <row r="393" spans="2:5">
-      <c r="E393" s="16" t="s">
-        <v>2638</v>
       </c>
     </row>
     <row r="394" spans="2:5">
       <c r="D394" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="395" spans="2:5">
+      <c r="E395" s="16" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="396" spans="2:5">
+      <c r="D396" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="397" spans="2:5">
+      <c r="E397" s="16" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="398" spans="2:5">
+      <c r="C398" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="399" spans="2:5">
+      <c r="E399" s="16" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="400" spans="2:5">
+      <c r="D400" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="401" spans="3:5">
+      <c r="C401" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="402" spans="3:5">
+      <c r="D402" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="403" spans="3:5">
+      <c r="E403" s="16" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="404" spans="3:5">
+      <c r="D404" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="405" spans="3:5">
+      <c r="E405" s="16" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="406" spans="3:5">
+      <c r="D406" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="407" spans="3:5">
+      <c r="E407" s="164" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="408" spans="3:5">
+      <c r="C408" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="409" spans="3:5">
+      <c r="E409" s="16" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="410" spans="3:5">
+      <c r="D410" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="411" spans="3:5">
+      <c r="C411" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="412" spans="3:5">
+      <c r="D412" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="413" spans="3:5">
+      <c r="D413" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="415" spans="3:5">
+      <c r="C415" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="416" spans="3:5">
+      <c r="D416" t="s">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="417" spans="2:5">
+      <c r="D417" s="16" t="s">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="418" spans="2:5">
+      <c r="D418" s="16" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="419" spans="2:5">
+      <c r="D419" s="16" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="420" spans="2:5">
+      <c r="D420" s="29"/>
+    </row>
+    <row r="421" spans="2:5">
+      <c r="D421" s="29" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="422" spans="2:5">
+      <c r="D422" s="29"/>
+    </row>
+    <row r="423" spans="2:5">
+      <c r="B423" s="2" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="424" spans="2:5">
+      <c r="C424" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="425" spans="2:5">
+      <c r="C425" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="427" spans="2:5">
+      <c r="C427" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="428" spans="2:5">
+      <c r="E428" s="16" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="429" spans="2:5">
+      <c r="D429" t="s">
         <v>2639</v>
       </c>
     </row>
-    <row r="395" spans="2:5">
-      <c r="D395" t="s">
+    <row r="430" spans="2:5">
+      <c r="D430" t="s">
         <v>2640</v>
       </c>
     </row>
-    <row r="396" spans="2:5">
-      <c r="C396" t="s">
+    <row r="431" spans="2:5">
+      <c r="C431" t="s">
         <v>2641</v>
       </c>
     </row>
-    <row r="397" spans="2:5">
-      <c r="D397" s="16" t="s">
+    <row r="432" spans="2:5">
+      <c r="D432" s="16" t="s">
         <v>2642</v>
       </c>
     </row>
-    <row r="399" spans="2:5">
-      <c r="B399" t="s">
+    <row r="434" spans="1:6">
+      <c r="B434" t="s">
         <v>2643</v>
       </c>
     </row>
-    <row r="400" spans="2:5">
-      <c r="C400" t="s">
+    <row r="435" spans="1:6">
+      <c r="C435" t="s">
         <v>2644</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
-      <c r="C401" t="s">
+    <row r="436" spans="1:6">
+      <c r="C436" t="s">
         <v>2645</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
-      <c r="C402" t="s">
+    <row r="437" spans="1:6">
+      <c r="C437" t="s">
         <v>2646</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
-      <c r="B404" t="s">
+    <row r="439" spans="1:6">
+      <c r="B439" t="s">
         <v>2647</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
-      <c r="C405" s="16" t="s">
+    <row r="440" spans="1:6">
+      <c r="C440" s="16" t="s">
         <v>2638</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
-      <c r="C406" s="16" t="s">
+    <row r="441" spans="1:6">
+      <c r="C441" s="16" t="s">
         <v>2642</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
-      <c r="A409" t="s">
+    <row r="444" spans="1:6">
+      <c r="A444" t="s">
         <v>2653</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
-      <c r="B411" s="132" t="s">
+    <row r="446" spans="1:6">
+      <c r="B446" s="132" t="s">
         <v>2654</v>
       </c>
-      <c r="C411" s="7"/>
-      <c r="D411" s="132" t="s">
+      <c r="C446" s="7"/>
+      <c r="D446" s="132" t="s">
         <v>2655</v>
       </c>
-      <c r="E411" s="18"/>
-      <c r="F411" s="7"/>
-    </row>
-    <row r="412" spans="1:6">
-      <c r="B412" s="172" t="s">
+      <c r="E446" s="18"/>
+      <c r="F446" s="7"/>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="B447" s="172" t="s">
         <v>2555</v>
       </c>
-      <c r="C412" s="38"/>
-      <c r="D412" s="39" t="s">
+      <c r="C447" s="38"/>
+      <c r="D447" s="39" t="s">
         <v>2656</v>
       </c>
-      <c r="E412" s="37"/>
-      <c r="F412" s="38"/>
-    </row>
-    <row r="413" spans="1:6">
-      <c r="B413" s="173" t="s">
+      <c r="E447" s="37"/>
+      <c r="F447" s="38"/>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="B448" s="173" t="s">
         <v>2657</v>
       </c>
-      <c r="C413" s="11"/>
-      <c r="D413" s="10" t="s">
+      <c r="C448" s="11"/>
+      <c r="D448" s="10" t="s">
         <v>2658</v>
       </c>
-      <c r="E413" s="26"/>
-      <c r="F413" s="11"/>
-    </row>
-    <row r="415" spans="1:6">
-      <c r="A415" s="2" t="s">
+      <c r="E448" s="26"/>
+      <c r="F448" s="11"/>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="2" t="s">
         <v>2659</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
-      <c r="B416" t="s">
+    <row r="451" spans="1:3">
+      <c r="B451" t="s">
         <v>2663</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
-      <c r="C417" t="s">
+    <row r="452" spans="1:3">
+      <c r="C452" t="s">
         <v>2660</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
-      <c r="C418" t="s">
+    <row r="453" spans="1:3">
+      <c r="C453" t="s">
         <v>2661</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
-      <c r="C419" t="s">
+    <row r="454" spans="1:3">
+      <c r="C454" t="s">
         <v>2662</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
-      <c r="B420" t="s">
+    <row r="455" spans="1:3">
+      <c r="B455" t="s">
         <v>2664</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
-      <c r="C421" s="174" t="s">
+    <row r="456" spans="1:3">
+      <c r="C456" s="174" t="s">
         <v>2665</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
-      <c r="C422" s="174"/>
-    </row>
-    <row r="423" spans="1:3">
-      <c r="C423" s="174"/>
-    </row>
-    <row r="424" spans="1:3">
-      <c r="A424" s="2" t="s">
+    <row r="457" spans="1:3">
+      <c r="C457" s="174"/>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="C458" s="174"/>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="2" t="s">
         <v>2701</v>
       </c>
-      <c r="C424" s="174"/>
-    </row>
-    <row r="425" spans="1:3">
-      <c r="B425" s="175" t="s">
+      <c r="C459" s="174"/>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="B460" s="175" t="s">
         <v>2728</v>
       </c>
-      <c r="C425" s="174"/>
-    </row>
-    <row r="426" spans="1:3">
-      <c r="C426" s="175" t="s">
+      <c r="C460" s="174"/>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="C461" s="175" t="s">
         <v>2702</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
-      <c r="C427" s="175"/>
-    </row>
-    <row r="428" spans="1:3">
-      <c r="B428" s="2" t="s">
+    <row r="462" spans="1:3">
+      <c r="C462" s="175"/>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="B463" s="2" t="s">
         <v>2730</v>
       </c>
-      <c r="C428" s="175"/>
-    </row>
-    <row r="429" spans="1:3">
-      <c r="C429" s="175" t="s">
+      <c r="C463" s="175"/>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="C464" s="175" t="s">
         <v>2727</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
-      <c r="C430" s="16" t="s">
+    <row r="465" spans="2:7">
+      <c r="C465" s="16" t="s">
         <v>2729</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
-      <c r="C431" s="174"/>
-    </row>
-    <row r="432" spans="1:3">
-      <c r="B432" s="2" t="s">
+    <row r="466" spans="2:7">
+      <c r="C466" s="174"/>
+    </row>
+    <row r="467" spans="2:7">
+      <c r="B467" s="2" t="s">
         <v>2706</v>
       </c>
-      <c r="C432" s="174"/>
-    </row>
-    <row r="433" spans="2:8">
-      <c r="C433" t="s">
+      <c r="C467" s="174"/>
+    </row>
+    <row r="468" spans="2:7">
+      <c r="C468" t="s">
         <v>2705</v>
       </c>
     </row>
-    <row r="435" spans="2:8">
-      <c r="C435" t="s">
+    <row r="470" spans="2:7">
+      <c r="C470" t="s">
         <v>2707</v>
       </c>
     </row>
-    <row r="436" spans="2:8">
-      <c r="D436" s="175" t="s">
+    <row r="471" spans="2:7">
+      <c r="D471" s="175" t="s">
         <v>2709</v>
       </c>
     </row>
-    <row r="438" spans="2:8">
-      <c r="C438" s="174"/>
-      <c r="D438" t="s">
+    <row r="473" spans="2:7">
+      <c r="C473" s="174"/>
+      <c r="D473" t="s">
         <v>2712</v>
       </c>
     </row>
-    <row r="439" spans="2:8">
-      <c r="C439" s="174"/>
-    </row>
-    <row r="440" spans="2:8">
-      <c r="C440" s="174"/>
-      <c r="D440" t="s">
+    <row r="474" spans="2:7">
+      <c r="C474" s="174"/>
+    </row>
+    <row r="475" spans="2:7">
+      <c r="C475" s="174"/>
+      <c r="D475" t="s">
         <v>2708</v>
       </c>
     </row>
-    <row r="441" spans="2:8">
-      <c r="C441" s="174"/>
-      <c r="E441" s="175" t="s">
+    <row r="476" spans="2:7">
+      <c r="C476" s="174"/>
+      <c r="E476" s="175" t="s">
         <v>2710</v>
       </c>
     </row>
-    <row r="442" spans="2:8">
-      <c r="C442" s="174"/>
-    </row>
-    <row r="443" spans="2:8">
-      <c r="D443" t="s">
+    <row r="477" spans="2:7">
+      <c r="C477" s="174"/>
+    </row>
+    <row r="478" spans="2:7">
+      <c r="D478" t="s">
         <v>2711</v>
       </c>
     </row>
-    <row r="445" spans="2:8">
-      <c r="C445" t="s">
+    <row r="480" spans="2:7">
+      <c r="C480" t="s">
         <v>2446</v>
       </c>
-      <c r="G445" t="s">
+      <c r="G480" t="s">
         <v>2713</v>
       </c>
     </row>
-    <row r="446" spans="2:8">
-      <c r="D446" s="16" t="s">
+    <row r="481" spans="2:9">
+      <c r="D481" s="16" t="s">
         <v>2642</v>
       </c>
-      <c r="H446" s="16" t="s">
+      <c r="H481" s="16" t="s">
         <v>2714</v>
       </c>
     </row>
-    <row r="447" spans="2:8">
-      <c r="D447" s="16"/>
-      <c r="H447" s="16"/>
-    </row>
-    <row r="448" spans="2:8">
-      <c r="B448" t="s">
+    <row r="482" spans="2:9">
+      <c r="D482" s="16"/>
+      <c r="H482" s="16"/>
+    </row>
+    <row r="483" spans="2:9">
+      <c r="B483" t="s">
         <v>2715</v>
       </c>
-      <c r="D448" s="16"/>
-      <c r="H448" s="16"/>
-    </row>
-    <row r="449" spans="1:9">
-      <c r="C449" s="16" t="s">
+      <c r="D483" s="16"/>
+      <c r="H483" s="16"/>
+    </row>
+    <row r="484" spans="2:9">
+      <c r="C484" s="16" t="s">
         <v>2396</v>
       </c>
-      <c r="D449" s="16"/>
-      <c r="H449" s="16"/>
-    </row>
-    <row r="450" spans="1:9">
-      <c r="C450" s="16"/>
-      <c r="D450" s="175" t="s">
+      <c r="D484" s="16"/>
+      <c r="H484" s="16"/>
+    </row>
+    <row r="485" spans="2:9">
+      <c r="C485" s="16"/>
+      <c r="D485" s="175" t="s">
         <v>2716</v>
       </c>
-      <c r="H450" s="16"/>
-    </row>
-    <row r="451" spans="1:9">
-      <c r="C451" s="16"/>
-      <c r="D451" s="175" t="s">
+      <c r="H485" s="16"/>
+    </row>
+    <row r="486" spans="2:9">
+      <c r="C486" s="16"/>
+      <c r="D486" s="175" t="s">
         <v>2717</v>
       </c>
-      <c r="H451" s="16"/>
-    </row>
-    <row r="452" spans="1:9">
-      <c r="D452" s="175" t="s">
+      <c r="H486" s="16"/>
+    </row>
+    <row r="487" spans="2:9">
+      <c r="D487" s="175" t="s">
         <v>2718</v>
       </c>
-      <c r="H452" s="16"/>
-    </row>
-    <row r="453" spans="1:9">
-      <c r="D453" s="175" t="s">
+      <c r="H487" s="16"/>
+    </row>
+    <row r="488" spans="2:9">
+      <c r="D488" s="175" t="s">
         <v>2719</v>
       </c>
     </row>
-    <row r="454" spans="1:9">
-      <c r="B454" t="s">
+    <row r="489" spans="2:9">
+      <c r="B489" t="s">
         <v>2720</v>
       </c>
-      <c r="D454" s="175"/>
-    </row>
-    <row r="455" spans="1:9">
-      <c r="C455" s="132" t="s">
+      <c r="D489" s="175"/>
+    </row>
+    <row r="490" spans="2:9">
+      <c r="C490" s="132" t="s">
         <v>2654</v>
       </c>
-      <c r="D455" s="18"/>
-      <c r="E455" s="7"/>
-      <c r="F455" s="132" t="s">
+      <c r="D490" s="18"/>
+      <c r="E490" s="7"/>
+      <c r="F490" s="132" t="s">
         <v>2703</v>
       </c>
-      <c r="G455" s="18"/>
-      <c r="H455" s="18"/>
-      <c r="I455" s="7"/>
-    </row>
-    <row r="456" spans="1:9">
-      <c r="C456" s="172" t="s">
+      <c r="G490" s="18"/>
+      <c r="H490" s="18"/>
+      <c r="I490" s="7"/>
+    </row>
+    <row r="491" spans="2:9">
+      <c r="C491" s="172" t="s">
         <v>2704</v>
       </c>
-      <c r="D456" s="37"/>
-      <c r="E456" s="38"/>
-      <c r="F456" s="39" t="s">
+      <c r="D491" s="37"/>
+      <c r="E491" s="38"/>
+      <c r="F491" s="39" t="s">
         <v>2721</v>
       </c>
-      <c r="G456" s="37"/>
-      <c r="H456" s="37"/>
-      <c r="I456" s="38"/>
-    </row>
-    <row r="457" spans="1:9">
-      <c r="C457" s="177" t="s">
+      <c r="G491" s="37"/>
+      <c r="H491" s="37"/>
+      <c r="I491" s="38"/>
+    </row>
+    <row r="492" spans="2:9">
+      <c r="C492" s="177" t="s">
         <v>2722</v>
       </c>
-      <c r="D457" s="19"/>
-      <c r="E457" s="9"/>
-      <c r="F457" s="8" t="s">
+      <c r="D492" s="19"/>
+      <c r="E492" s="9"/>
+      <c r="F492" s="8" t="s">
         <v>2723</v>
       </c>
-      <c r="G457" s="19"/>
-      <c r="H457" s="19"/>
-      <c r="I457" s="9"/>
-    </row>
-    <row r="458" spans="1:9">
-      <c r="C458" s="172" t="s">
+      <c r="G492" s="19"/>
+      <c r="H492" s="19"/>
+      <c r="I492" s="9"/>
+    </row>
+    <row r="493" spans="2:9">
+      <c r="C493" s="172" t="s">
         <v>2642</v>
       </c>
-      <c r="D458" s="37"/>
-      <c r="E458" s="38"/>
-      <c r="F458" s="39" t="s">
+      <c r="D493" s="37"/>
+      <c r="E493" s="38"/>
+      <c r="F493" s="39" t="s">
         <v>2446</v>
       </c>
-      <c r="G458" s="37"/>
-      <c r="H458" s="37"/>
-      <c r="I458" s="38"/>
-    </row>
-    <row r="459" spans="1:9">
-      <c r="C459" s="177" t="s">
+      <c r="G493" s="37"/>
+      <c r="H493" s="37"/>
+      <c r="I493" s="38"/>
+    </row>
+    <row r="494" spans="2:9">
+      <c r="C494" s="177" t="s">
         <v>2714</v>
       </c>
-      <c r="D459" s="19"/>
-      <c r="E459" s="9"/>
-      <c r="F459" s="8" t="s">
+      <c r="D494" s="19"/>
+      <c r="E494" s="9"/>
+      <c r="F494" s="8" t="s">
         <v>2713</v>
       </c>
-      <c r="G459" s="19"/>
-      <c r="H459" s="19"/>
-      <c r="I459" s="9"/>
-    </row>
-    <row r="460" spans="1:9">
-      <c r="C460" s="172" t="s">
+      <c r="G494" s="19"/>
+      <c r="H494" s="19"/>
+      <c r="I494" s="9"/>
+    </row>
+    <row r="495" spans="2:9">
+      <c r="C495" s="172" t="s">
         <v>2396</v>
       </c>
-      <c r="D460" s="37"/>
-      <c r="E460" s="38"/>
-      <c r="F460" s="39" t="s">
+      <c r="D495" s="37"/>
+      <c r="E495" s="38"/>
+      <c r="F495" s="39" t="s">
         <v>2724</v>
       </c>
-      <c r="G460" s="37"/>
-      <c r="H460" s="37"/>
-      <c r="I460" s="38"/>
-    </row>
-    <row r="461" spans="1:9">
-      <c r="C461" s="173" t="s">
+      <c r="G495" s="37"/>
+      <c r="H495" s="37"/>
+      <c r="I495" s="38"/>
+    </row>
+    <row r="496" spans="2:9">
+      <c r="C496" s="173" t="s">
         <v>2725</v>
       </c>
-      <c r="D461" s="26"/>
-      <c r="E461" s="11"/>
-      <c r="F461" s="10" t="s">
+      <c r="D496" s="26"/>
+      <c r="E496" s="11"/>
+      <c r="F496" s="10" t="s">
         <v>2726</v>
       </c>
-      <c r="G461" s="26"/>
-      <c r="H461" s="26"/>
-      <c r="I461" s="11"/>
-    </row>
-    <row r="462" spans="1:9">
-      <c r="D462" s="175"/>
-    </row>
-    <row r="463" spans="1:9">
-      <c r="A463" s="2" t="s">
+      <c r="G496" s="26"/>
+      <c r="H496" s="26"/>
+      <c r="I496" s="11"/>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="D497" s="175"/>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="2" t="s">
         <v>2666</v>
       </c>
     </row>
-    <row r="464" spans="1:9">
-      <c r="B464" t="s">
+    <row r="499" spans="1:5">
+      <c r="B499" t="s">
         <v>2679</v>
       </c>
     </row>
-    <row r="465" spans="2:5">
-      <c r="B465" s="16" t="s">
+    <row r="500" spans="1:5">
+      <c r="B500" s="16" t="s">
         <v>2387</v>
       </c>
-      <c r="E465" t="s">
+      <c r="E500" t="s">
         <v>2667</v>
       </c>
     </row>
-    <row r="466" spans="2:5">
-      <c r="B466" s="16" t="s">
+    <row r="501" spans="1:5">
+      <c r="B501" s="16" t="s">
         <v>2669</v>
       </c>
-      <c r="E466" t="s">
+      <c r="E501" t="s">
         <v>2668</v>
       </c>
     </row>
-    <row r="467" spans="2:5">
-      <c r="B467" s="16" t="s">
+    <row r="502" spans="1:5">
+      <c r="B502" s="16" t="s">
         <v>2389</v>
       </c>
-      <c r="E467" t="s">
+      <c r="E502" t="s">
         <v>2670</v>
       </c>
     </row>
-    <row r="468" spans="2:5">
-      <c r="B468" s="16" t="s">
+    <row r="503" spans="1:5">
+      <c r="B503" s="16" t="s">
         <v>2392</v>
       </c>
-      <c r="E468" t="s">
+      <c r="E503" t="s">
         <v>2671</v>
       </c>
     </row>
-    <row r="469" spans="2:5">
-      <c r="B469" s="174" t="s">
+    <row r="504" spans="1:5">
+      <c r="B504" s="174" t="s">
         <v>2672</v>
       </c>
-      <c r="E469" t="s">
+      <c r="E504" t="s">
         <v>2673</v>
       </c>
     </row>
-    <row r="470" spans="2:5">
-      <c r="B470" s="16" t="s">
+    <row r="505" spans="1:5">
+      <c r="B505" s="16" t="s">
         <v>2403</v>
       </c>
-      <c r="E470" t="s">
+      <c r="E505" t="s">
         <v>2674</v>
       </c>
     </row>
-    <row r="471" spans="2:5">
-      <c r="B471" s="16" t="s">
+    <row r="506" spans="1:5">
+      <c r="B506" s="16" t="s">
         <v>2675</v>
       </c>
-      <c r="E471" t="s">
+      <c r="E506" t="s">
         <v>2676</v>
       </c>
     </row>
-    <row r="472" spans="2:5">
-      <c r="B472" s="16" t="s">
+    <row r="507" spans="1:5">
+      <c r="B507" s="16" t="s">
         <v>2677</v>
       </c>
-      <c r="E472" t="s">
+      <c r="E507" t="s">
         <v>2678</v>
       </c>
     </row>
-    <row r="474" spans="2:5">
-      <c r="B474" t="s">
+    <row r="509" spans="1:5">
+      <c r="B509" t="s">
         <v>2680</v>
       </c>
     </row>
-    <row r="475" spans="2:5">
-      <c r="B475" s="16" t="s">
+    <row r="510" spans="1:5">
+      <c r="B510" s="16" t="s">
         <v>2555</v>
       </c>
-      <c r="E475" t="s">
+      <c r="E510" t="s">
         <v>2681</v>
       </c>
     </row>
-    <row r="476" spans="2:5">
-      <c r="B476" s="16" t="s">
+    <row r="511" spans="1:5">
+      <c r="B511" s="16" t="s">
         <v>2657</v>
       </c>
-      <c r="E476" t="s">
+      <c r="E511" t="s">
         <v>2682</v>
       </c>
     </row>
-    <row r="477" spans="2:5">
-      <c r="B477" s="16" t="s">
+    <row r="512" spans="1:5">
+      <c r="B512" s="16" t="s">
         <v>2688</v>
       </c>
-      <c r="E477" t="s">
+      <c r="E512" t="s">
         <v>2683</v>
       </c>
     </row>
-    <row r="478" spans="2:5">
-      <c r="B478" s="16" t="s">
+    <row r="513" spans="2:5">
+      <c r="B513" s="16" t="s">
         <v>2687</v>
       </c>
-      <c r="E478" t="s">
+      <c r="E513" t="s">
         <v>2684</v>
       </c>
     </row>
-    <row r="479" spans="2:5">
-      <c r="B479" s="16" t="s">
+    <row r="514" spans="2:5">
+      <c r="B514" s="16" t="s">
         <v>2686</v>
       </c>
-      <c r="E479" t="s">
+      <c r="E514" t="s">
         <v>2685</v>
       </c>
     </row>
-    <row r="480" spans="2:5">
-      <c r="B480" s="16" t="s">
+    <row r="515" spans="2:5">
+      <c r="B515" s="16" t="s">
         <v>2689</v>
       </c>
-      <c r="E480" t="s">
+      <c r="E515" t="s">
         <v>2690</v>
       </c>
     </row>
-    <row r="482" spans="1:5">
-      <c r="B482" t="s">
+    <row r="517" spans="2:5">
+      <c r="B517" t="s">
         <v>2691</v>
       </c>
     </row>
-    <row r="483" spans="1:5">
-      <c r="B483" s="16" t="s">
+    <row r="518" spans="2:5">
+      <c r="B518" s="16" t="s">
         <v>2392</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
-      <c r="B484" s="16" t="s">
+    <row r="519" spans="2:5">
+      <c r="B519" s="16" t="s">
         <v>2692</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
-      <c r="B485" s="16" t="s">
+    <row r="520" spans="2:5">
+      <c r="B520" s="16" t="s">
         <v>2402</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
-      <c r="B487" t="s">
+    <row r="522" spans="2:5">
+      <c r="B522" t="s">
         <v>2693</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
-      <c r="B488" s="16" t="s">
+    <row r="523" spans="2:5">
+      <c r="B523" s="16" t="s">
         <v>2694</v>
       </c>
     </row>
-    <row r="490" spans="1:5">
-      <c r="B490" t="s">
+    <row r="525" spans="2:5">
+      <c r="B525" t="s">
         <v>2695</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
-      <c r="B491" s="16" t="s">
+    <row r="526" spans="2:5">
+      <c r="B526" s="16" t="s">
         <v>2396</v>
       </c>
-      <c r="E491" t="s">
+      <c r="E526" t="s">
         <v>2696</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
-      <c r="B492" s="16" t="s">
+    <row r="527" spans="2:5">
+      <c r="B527" s="16" t="s">
         <v>2699</v>
       </c>
-      <c r="E492" t="s">
+      <c r="E527" t="s">
         <v>2697</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
-      <c r="B493" s="16" t="s">
+    <row r="528" spans="2:5">
+      <c r="B528" s="16" t="s">
         <v>2700</v>
       </c>
-      <c r="E493" t="s">
+      <c r="E528" t="s">
         <v>2698</v>
       </c>
     </row>
-    <row r="495" spans="1:5">
-      <c r="A495" s="175" t="s">
+    <row r="530" spans="1:4">
+      <c r="A530" s="175" t="s">
         <v>2774</v>
       </c>
     </row>
-    <row r="497" spans="2:4">
-      <c r="B497" s="175" t="s">
+    <row r="532" spans="1:4">
+      <c r="B532" s="175" t="s">
         <v>2783</v>
       </c>
     </row>
-    <row r="498" spans="2:4">
-      <c r="C498" t="s">
+    <row r="533" spans="1:4">
+      <c r="C533" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="500" spans="2:4">
-      <c r="C500" t="s">
+    <row r="535" spans="1:4">
+      <c r="C535" t="s">
         <v>2775</v>
       </c>
     </row>
-    <row r="501" spans="2:4">
-      <c r="D501" t="s">
+    <row r="536" spans="1:4">
+      <c r="D536" t="s">
         <v>2741</v>
       </c>
     </row>
-    <row r="502" spans="2:4">
-      <c r="D502" t="s">
+    <row r="537" spans="1:4">
+      <c r="D537" t="s">
         <v>2776</v>
       </c>
     </row>
-    <row r="503" spans="2:4">
-      <c r="C503" t="s">
+    <row r="538" spans="1:4">
+      <c r="C538" t="s">
         <v>2777</v>
       </c>
     </row>
-    <row r="504" spans="2:4">
-      <c r="D504" t="s">
+    <row r="539" spans="1:4">
+      <c r="D539" t="s">
         <v>2742</v>
       </c>
     </row>
-    <row r="505" spans="2:4">
-      <c r="D505" t="s">
+    <row r="540" spans="1:4">
+      <c r="D540" t="s">
         <v>2778</v>
       </c>
     </row>
-    <row r="507" spans="2:4">
-      <c r="C507" t="s">
+    <row r="542" spans="1:4">
+      <c r="C542" t="s">
         <v>2779</v>
       </c>
     </row>
-    <row r="508" spans="2:4">
-      <c r="D508" s="16" t="s">
+    <row r="543" spans="1:4">
+      <c r="D543" s="16" t="s">
         <v>2780</v>
       </c>
     </row>
-    <row r="509" spans="2:4">
-      <c r="D509" s="16" t="s">
+    <row r="544" spans="1:4">
+      <c r="D544" s="16" t="s">
         <v>2781</v>
       </c>
     </row>
-    <row r="510" spans="2:4">
-      <c r="D510" s="16" t="s">
+    <row r="545" spans="2:4">
+      <c r="D545" s="16" t="s">
         <v>2402</v>
       </c>
     </row>
-    <row r="512" spans="2:4">
-      <c r="C512" s="175" t="s">
+    <row r="547" spans="2:4">
+      <c r="C547" s="175" t="s">
         <v>2782</v>
       </c>
     </row>
-    <row r="513" spans="2:4">
-      <c r="D513" t="s">
+    <row r="548" spans="2:4">
+      <c r="D548" t="s">
         <v>2741</v>
       </c>
     </row>
-    <row r="514" spans="2:4">
-      <c r="D514" t="s">
+    <row r="549" spans="2:4">
+      <c r="D549" t="s">
         <v>2776</v>
       </c>
     </row>
-    <row r="515" spans="2:4">
-      <c r="D515" t="s">
+    <row r="550" spans="2:4">
+      <c r="D550" t="s">
         <v>2742</v>
       </c>
     </row>
-    <row r="516" spans="2:4">
-      <c r="D516" t="s">
+    <row r="551" spans="2:4">
+      <c r="D551" t="s">
         <v>2778</v>
       </c>
     </row>
-    <row r="518" spans="2:4">
-      <c r="B518" s="175" t="s">
+    <row r="553" spans="2:4">
+      <c r="B553" s="175" t="s">
         <v>2784</v>
       </c>
     </row>
-    <row r="519" spans="2:4">
-      <c r="C519" s="2" t="s">
+    <row r="554" spans="2:4">
+      <c r="C554" s="2" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="521" spans="2:4">
-      <c r="C521" t="s">
+    <row r="556" spans="2:4">
+      <c r="C556" t="s">
         <v>2775</v>
       </c>
     </row>
-    <row r="522" spans="2:4">
-      <c r="D522" s="17" t="s">
+    <row r="557" spans="2:4">
+      <c r="D557" s="17" t="s">
         <v>2785</v>
       </c>
     </row>
-    <row r="523" spans="2:4">
-      <c r="C523" t="s">
+    <row r="558" spans="2:4">
+      <c r="C558" t="s">
         <v>2777</v>
       </c>
     </row>
-    <row r="524" spans="2:4">
-      <c r="D524" s="180" t="s">
+    <row r="559" spans="2:4">
+      <c r="D559" s="180" t="s">
         <v>2786</v>
       </c>
     </row>
-    <row r="526" spans="2:4">
-      <c r="C526" t="s">
+    <row r="561" spans="3:5">
+      <c r="C561" t="s">
         <v>2787</v>
       </c>
     </row>
-    <row r="527" spans="2:4">
-      <c r="D527" s="16" t="s">
+    <row r="562" spans="3:5">
+      <c r="D562" s="16" t="s">
         <v>2780</v>
       </c>
     </row>
-    <row r="528" spans="2:4">
-      <c r="D528" s="16" t="s">
+    <row r="563" spans="3:5">
+      <c r="D563" s="16" t="s">
         <v>2781</v>
       </c>
     </row>
-    <row r="530" spans="3:5">
-      <c r="C530" t="s">
+    <row r="565" spans="3:5">
+      <c r="C565" t="s">
         <v>2788</v>
       </c>
     </row>
-    <row r="531" spans="3:5">
-      <c r="D531" s="29" t="s">
+    <row r="566" spans="3:5">
+      <c r="D566" s="29" t="s">
         <v>2789</v>
       </c>
     </row>
-    <row r="532" spans="3:5">
-      <c r="D532" s="29" t="s">
+    <row r="567" spans="3:5">
+      <c r="D567" s="29" t="s">
         <v>2792</v>
       </c>
     </row>
-    <row r="533" spans="3:5">
-      <c r="D533" s="29" t="s">
+    <row r="568" spans="3:5">
+      <c r="D568" s="29" t="s">
         <v>2791</v>
       </c>
     </row>
-    <row r="534" spans="3:5">
-      <c r="D534" s="29"/>
-    </row>
-    <row r="535" spans="3:5">
-      <c r="C535" t="s">
+    <row r="569" spans="3:5">
+      <c r="D569" s="29"/>
+    </row>
+    <row r="570" spans="3:5">
+      <c r="C570" t="s">
         <v>2790</v>
       </c>
     </row>
-    <row r="536" spans="3:5">
-      <c r="D536" s="29" t="s">
+    <row r="571" spans="3:5">
+      <c r="D571" s="29" t="s">
         <v>2793</v>
       </c>
     </row>
-    <row r="537" spans="3:5">
-      <c r="D537" s="29" t="s">
+    <row r="572" spans="3:5">
+      <c r="D572" s="29" t="s">
         <v>2794</v>
       </c>
     </row>
-    <row r="538" spans="3:5">
-      <c r="E538" t="s">
+    <row r="573" spans="3:5">
+      <c r="E573" t="s">
         <v>2795</v>
       </c>
     </row>
-    <row r="539" spans="3:5">
-      <c r="E539" s="17" t="s">
+    <row r="574" spans="3:5">
+      <c r="E574" s="17" t="s">
         <v>2785</v>
       </c>
     </row>
-    <row r="540" spans="3:5">
-      <c r="E540" s="14" t="s">
+    <row r="575" spans="3:5">
+      <c r="E575" s="14" t="s">
         <v>2797</v>
       </c>
     </row>
-    <row r="541" spans="3:5">
-      <c r="E541" s="180" t="s">
+    <row r="576" spans="3:5">
+      <c r="E576" s="180" t="s">
         <v>2786</v>
       </c>
     </row>
-    <row r="542" spans="3:5">
-      <c r="E542" t="s">
+    <row r="577" spans="2:5">
+      <c r="E577" t="s">
         <v>2796</v>
       </c>
     </row>
-    <row r="543" spans="3:5">
-      <c r="D543" t="s">
+    <row r="578" spans="2:5">
+      <c r="D578" t="s">
         <v>2798</v>
       </c>
     </row>
-    <row r="544" spans="3:5">
-      <c r="D544" t="s">
+    <row r="579" spans="2:5">
+      <c r="D579" t="s">
         <v>2799</v>
       </c>
     </row>
-    <row r="545" spans="2:11">
-      <c r="E545" s="16" t="s">
+    <row r="580" spans="2:5">
+      <c r="E580" s="16" t="s">
         <v>2800</v>
       </c>
     </row>
-    <row r="546" spans="2:11">
-      <c r="E546" s="16" t="s">
+    <row r="581" spans="2:5">
+      <c r="E581" s="16" t="s">
         <v>2801</v>
       </c>
     </row>
-    <row r="547" spans="2:11">
-      <c r="E547" s="16" t="s">
+    <row r="582" spans="2:5">
+      <c r="E582" s="16" t="s">
         <v>2402</v>
       </c>
     </row>
-    <row r="549" spans="2:11">
-      <c r="B549" s="2" t="s">
+    <row r="584" spans="2:5">
+      <c r="B584" s="2" t="s">
         <v>2802</v>
       </c>
     </row>
-    <row r="551" spans="2:11">
-      <c r="C551" s="175" t="s">
+    <row r="586" spans="2:5">
+      <c r="C586" s="175" t="s">
         <v>2803</v>
       </c>
     </row>
-    <row r="552" spans="2:11">
-      <c r="C552" s="175" t="s">
+    <row r="587" spans="2:5">
+      <c r="C587" s="175" t="s">
         <v>2804</v>
       </c>
     </row>
-    <row r="554" spans="2:11">
-      <c r="C554" t="s">
+    <row r="589" spans="2:5">
+      <c r="C589" t="s">
         <v>2805</v>
       </c>
     </row>
-    <row r="555" spans="2:11">
-      <c r="C555" t="s">
+    <row r="590" spans="2:5">
+      <c r="C590" t="s">
         <v>2806</v>
       </c>
     </row>
-    <row r="557" spans="2:11">
-      <c r="B557" s="2" t="s">
+    <row r="592" spans="2:5">
+      <c r="B592" s="2" t="s">
         <v>2807</v>
       </c>
     </row>
-    <row r="559" spans="2:11">
-      <c r="C559" s="132" t="s">
+    <row r="594" spans="1:11">
+      <c r="C594" s="132" t="s">
         <v>2808</v>
       </c>
-      <c r="D559" s="18"/>
-      <c r="E559" s="7"/>
-      <c r="F559" s="132" t="s">
+      <c r="D594" s="18"/>
+      <c r="E594" s="7"/>
+      <c r="F594" s="132" t="s">
         <v>2809</v>
       </c>
-      <c r="G559" s="18"/>
-      <c r="H559" s="7"/>
-      <c r="I559" s="132" t="s">
+      <c r="G594" s="18"/>
+      <c r="H594" s="7"/>
+      <c r="I594" s="132" t="s">
         <v>2810</v>
       </c>
-      <c r="J559" s="18"/>
-      <c r="K559" s="7"/>
-    </row>
-    <row r="560" spans="2:11">
-      <c r="C560" s="109" t="s">
+      <c r="J594" s="18"/>
+      <c r="K594" s="7"/>
+    </row>
+    <row r="595" spans="1:11">
+      <c r="C595" s="109" t="s">
         <v>2811</v>
       </c>
-      <c r="D560" s="37"/>
-      <c r="E560" s="38"/>
-      <c r="F560" s="39" t="s">
+      <c r="D595" s="37"/>
+      <c r="E595" s="38"/>
+      <c r="F595" s="39" t="s">
         <v>2812</v>
       </c>
-      <c r="G560" s="37"/>
-      <c r="H560" s="38"/>
-      <c r="I560" s="39" t="s">
+      <c r="G595" s="37"/>
+      <c r="H595" s="38"/>
+      <c r="I595" s="39" t="s">
         <v>2813</v>
       </c>
-      <c r="J560" s="37"/>
-      <c r="K560" s="38"/>
-    </row>
-    <row r="561" spans="3:11">
-      <c r="C561" s="122" t="s">
+      <c r="J595" s="37"/>
+      <c r="K595" s="38"/>
+    </row>
+    <row r="596" spans="1:11">
+      <c r="C596" s="122" t="s">
         <v>2814</v>
       </c>
-      <c r="D561" s="26"/>
-      <c r="E561" s="11"/>
-      <c r="F561" s="10" t="s">
+      <c r="D596" s="26"/>
+      <c r="E596" s="11"/>
+      <c r="F596" s="10" t="s">
         <v>2815</v>
       </c>
-      <c r="G561" s="26"/>
-      <c r="H561" s="11"/>
-      <c r="I561" s="10" t="s">
+      <c r="G596" s="26"/>
+      <c r="H596" s="11"/>
+      <c r="I596" s="10" t="s">
         <v>2816</v>
       </c>
-      <c r="J561" s="26"/>
-      <c r="K561" s="11"/>
+      <c r="J596" s="26"/>
+      <c r="K596" s="11"/>
+    </row>
+    <row r="598" spans="1:11">
+      <c r="A598" s="2" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11">
+      <c r="B599" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="601" spans="1:11">
+      <c r="B601" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="602" spans="1:11">
+      <c r="B602" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="603" spans="1:11">
+      <c r="C603" s="16" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="605" spans="1:11">
+      <c r="D605" s="187" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="606" spans="1:11">
+      <c r="D606" s="187" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="607" spans="1:11">
+      <c r="D607" s="187" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="608" spans="1:11">
+      <c r="D608" s="187"/>
+    </row>
+    <row r="609" spans="1:4">
+      <c r="D609" s="187" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4">
+      <c r="D610" s="187"/>
+    </row>
+    <row r="611" spans="1:4">
+      <c r="D611" s="187" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4">
+      <c r="D612" s="187" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4">
+      <c r="D613" s="187" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4">
+      <c r="D614" s="187"/>
+    </row>
+    <row r="615" spans="1:4">
+      <c r="D615" s="187" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4">
+      <c r="A617" s="2" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4">
+      <c r="B618" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4">
+      <c r="C619" s="16" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4">
+      <c r="C620" s="16" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4">
+      <c r="C621" s="16" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4">
+      <c r="B623" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4">
+      <c r="B624" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="625" spans="3:3">
+      <c r="C625" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="626" spans="3:3">
+      <c r="C626" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="627" spans="3:3">
+      <c r="C627" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="628" spans="3:3">
+      <c r="C628" t="s">
+        <v>2874</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -40184,6 +42453,616 @@
     <hyperlink ref="C203" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>2877</v>
+      </c>
+      <c r="G20" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="G21" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>2879</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="G23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="192" t="s">
+        <v>2891</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" location="Home!A1" display="Home!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>2896</v>
+      </c>
+      <c r="F7" s="192" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" t="s">
+        <v>2894</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="C10" t="s">
+        <v>2898</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="C11" s="14" t="s">
+        <v>2900</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>2905</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2902</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" t="s">
+        <v>2911</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2912</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="B17" t="s">
+        <v>2906</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>2904</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2903</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>2904</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2908</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20" s="2" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="C21" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="B24" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="192" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37" t="s">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" t="s">
+        <v>2923</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" t="s">
+        <v>2925</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="B45" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="B47" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E47" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="B48" t="s">
+        <v>2927</v>
+      </c>
+      <c r="E48" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="B49" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="B52" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="B53" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="B55" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="B56" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="B59" t="s">
+        <v>2936</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="B62" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="B64" t="s">
+        <v>2939</v>
+      </c>
+      <c r="F64" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="B65" t="s">
+        <v>2940</v>
+      </c>
+      <c r="F65" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="B66" t="s">
+        <v>2939</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="B67" t="s">
+        <v>2941</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="2" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="2"/>
+      <c r="B70" t="s">
+        <v>2947</v>
+      </c>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="2"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="2"/>
+      <c r="I72" s="2" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="B73" t="s">
+        <v>2925</v>
+      </c>
+      <c r="I73" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="B74" t="s">
+        <v>2943</v>
+      </c>
+      <c r="F74" s="3">
+        <v>6</v>
+      </c>
+      <c r="I74" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="B75" t="s">
+        <v>2941</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>2944</v>
+      </c>
+      <c r="I75" t="s">
+        <v>2941</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="2" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="B78" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="B79" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="B80" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="B82" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="B83" t="s">
+        <v>2954</v>
+      </c>
+      <c r="F83" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="B84" t="s">
+        <v>2955</v>
+      </c>
+      <c r="F84" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="B85" t="s">
+        <v>2941</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="B88" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="B90" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="B92" t="s">
+        <v>2939</v>
+      </c>
+      <c r="E92" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="B93" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="B94" t="s">
+        <v>2958</v>
+      </c>
+      <c r="E94" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="B95" t="s">
+        <v>2941</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F1" location="Home!A1" display="Home!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/js_front_27.02.xlsx
+++ b/js_front_27.02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10008" tabRatio="751" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10008" tabRatio="751"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5117" uniqueCount="3204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5297" uniqueCount="3352">
   <si>
     <t>Exercise
 Introduction</t>
@@ -31803,6 +31803,1237 @@
   </si>
   <si>
     <t>This system helps you easily understand what happens behind the scenes</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>The filter() method creates a new array with all elements that satisfy a given condition</t>
+  </si>
+  <si>
+    <t>It does not modify the original array — it only returns the filtered result</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>newArray</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(function(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>currentValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, index, array) { // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return true or false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> });</t>
+    </r>
+  </si>
+  <si>
+    <t>console.log(array1);</t>
+  </si>
+  <si>
+    <t>console.log(evenNumbers);</t>
+  </si>
+  <si>
+    <t>(5) [1, 2, 3, 4, 5]</t>
+  </si>
+  <si>
+    <t>(2) [2, 4]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>array1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = [1, 2, 3, 4, 5];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let evenNumbers = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>array1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> % 2 === 0);</t>
+    </r>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>let text = "Hello" + ", ";</t>
+  </si>
+  <si>
+    <t>text += "JS!";</t>
+  </si>
+  <si>
+    <t>console.log(text);</t>
+  </si>
+  <si>
+    <t>Hello, JS!</t>
+  </si>
+  <si>
+    <t>Concatenating</t>
+  </si>
+  <si>
+    <t>let greet = "Hello ";</t>
+  </si>
+  <si>
+    <t>let name = "Sikato";</t>
+  </si>
+  <si>
+    <t>let result = greet.concat(name);</t>
+  </si>
+  <si>
+    <t>console.log(result);</t>
+  </si>
+  <si>
+    <t>let str = "I am JavaScript developer";</t>
+  </si>
+  <si>
+    <t>let sub = str.substring(5, 10);</t>
+  </si>
+  <si>
+    <t>console.log(sub);</t>
+  </si>
+  <si>
+    <t>Substring</t>
+  </si>
+  <si>
+    <t>JavaS</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <r>
+      <t>string.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>replace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(searchValue, newValue);</t>
+    </r>
+  </si>
+  <si>
+    <t>let text = 'I love JavaScript!';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I love JavaScript! </t>
+  </si>
+  <si>
+    <t>I love Python!</t>
+  </si>
+  <si>
+    <r>
+      <t>let result = text.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>replace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('JavaScript', 'Python');</t>
+    </r>
+  </si>
+  <si>
+    <t>let sentence = 'The cat is black. The cat is cute.';</t>
+  </si>
+  <si>
+    <t>let result = sentence.replace('cat', 'dog');</t>
+  </si>
+  <si>
+    <t>The dog is black. The cat is cute.</t>
+  </si>
+  <si>
+    <t># Replace Only the First Match</t>
+  </si>
+  <si>
+    <t>Use Regular Expressions to Replace All Matches</t>
+  </si>
+  <si>
+    <t>let text = 'apple apple apple';</t>
+  </si>
+  <si>
+    <t>let result = text.replace(/apple/g, 'orange');</t>
+  </si>
+  <si>
+    <t>orange orange orange</t>
+  </si>
+  <si>
+    <t>let sentence = 'Hello world!';</t>
+  </si>
+  <si>
+    <t>let result = sentence.replace(/hello/i, 'Hi');</t>
+  </si>
+  <si>
+    <t>Hi world!</t>
+  </si>
+  <si>
+    <t>With the /i flag, the search becomes case-insensitive:</t>
+  </si>
+  <si>
+    <t>replace() only replaces the first match by default.</t>
+  </si>
+  <si>
+    <t>It does not modify the original string — it always returns a new string</t>
+  </si>
+  <si>
+    <t>Use regular expressions with /g for global replacement.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can also use arrow functions inside replace() for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dynamic replacements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Bonus Tip:</t>
+  </si>
+  <si>
+    <t>let text = 'Price: $100';</t>
+  </si>
+  <si>
+    <t>Price: $$110</t>
+  </si>
+  <si>
+    <r>
+      <t>let result = text.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>replace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(/\d+/g, match =&gt; `$${Number(match) + 10}`);</t>
+    </r>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>let n = 3;</t>
+  </si>
+  <si>
+    <t>for(let i = 1; i &lt;= n; i++) {</t>
+  </si>
+  <si>
+    <t> console.log('*'.repeat(i));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">** </t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>    console.log(text);</t>
+  </si>
+  <si>
+    <t>solve('A small sentence with some words, small', 'small')</t>
+  </si>
+  <si>
+    <r>
+      <t>        text = text.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>replace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(word, '*'.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>repeat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(word.length))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (text, word) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    while (text.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>includes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(word)) {</t>
+    </r>
+  </si>
+  <si>
+    <t>A ***** sentence with some words, *****</t>
+  </si>
+  <si>
+    <t>Censored Words</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>The trim() method removes whitespace (spaces, tabs, and newlines) from both ends of a string.</t>
+  </si>
+  <si>
+    <t>string.trim();</t>
+  </si>
+  <si>
+    <t>it remove " ", \n, \t, \r</t>
+  </si>
+  <si>
+    <t>let text = '   Hello, JavaScript!   ';</t>
+  </si>
+  <si>
+    <t>Hello, JavaScript!</t>
+  </si>
+  <si>
+    <t>let sentence = '\n\t Welcome to coding! \t\n';</t>
+  </si>
+  <si>
+    <t>Welcome to coding!</t>
+  </si>
+  <si>
+    <r>
+      <t>console.log(sentence.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let result = text.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>There are:</t>
+  </si>
+  <si>
+    <t>trimStart()</t>
+  </si>
+  <si>
+    <t>trimEnd()</t>
+  </si>
+  <si>
+    <t>startsWith</t>
+  </si>
+  <si>
+    <t>The startsWith() method checks if a string begins with a specified substring. It returns true if the string starts with the given characters; otherwise, it returns false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This method is case-sensitive. </t>
+  </si>
+  <si>
+    <r>
+      <t>string.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>startsWith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(searchString, position)</t>
+    </r>
+  </si>
+  <si>
+    <t>const text = "Hello, world!";</t>
+  </si>
+  <si>
+    <r>
+      <t>console.log(text.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>startsWith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("Hello"));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console.log(text.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>startsWith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">("world")); </t>
+    </r>
+  </si>
+  <si>
+    <t>const text = "JavaScript is fun!";</t>
+  </si>
+  <si>
+    <t>console.log(text.startsWith("Script", 4));</t>
+  </si>
+  <si>
+    <t>padStart()</t>
+  </si>
+  <si>
+    <t>let number = '5';</t>
+  </si>
+  <si>
+    <t>console.log(paddedNumber)</t>
+  </si>
+  <si>
+    <r>
+      <t>let paddedNumber = number.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>padStart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>');</t>
+    </r>
+  </si>
+  <si>
+    <t>padding with spaces</t>
+  </si>
+  <si>
+    <t>let text = 'Hello';</t>
+  </si>
+  <si>
+    <t>let paddedText = text.padStart(10);</t>
+  </si>
+  <si>
+    <t>console.log(paddedText)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Hello</t>
+  </si>
+  <si>
+    <t>The length of the resulting string once the current string has been padded</t>
+  </si>
+  <si>
+    <t>targetLength</t>
+  </si>
+  <si>
+    <t>padString (optional): The string to pad the current string with</t>
+  </si>
+  <si>
+    <t>padEnd()</t>
+  </si>
+  <si>
+    <r>
+      <t>str.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>padEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(targetLength [, padString])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>str.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>padStart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(targetLength [, padString])</t>
+    </r>
+  </si>
+  <si>
+    <t>let newNumber = number.padEnd(4, '1');</t>
+  </si>
+  <si>
+    <t>console.log(newNumber);</t>
+  </si>
+  <si>
+    <t>Padding with a Custom String</t>
+  </si>
+  <si>
+    <t>let number = '123';</t>
+  </si>
+  <si>
+    <r>
+      <t>let newNumber = number.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>padEnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(7, 'ABC');</t>
+    </r>
+  </si>
+  <si>
+    <t>123ABCA</t>
+  </si>
+  <si>
+    <t>Regex</t>
+  </si>
+  <si>
+    <t>test(string)</t>
+  </si>
+  <si>
+    <t>Determines whether there is a match</t>
+  </si>
+  <si>
+    <t>let text = 'Today is 2015-05-11';</t>
+  </si>
+  <si>
+    <t>let regexp = /\d{4}-\d{2}-\d{2}/g;</t>
+  </si>
+  <si>
+    <r>
+      <t>let result = regexp.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(text);</t>
+    </r>
+  </si>
+  <si>
+    <t>match(regexp)</t>
+  </si>
+  <si>
+    <t>Returns an array of all matches (strings)</t>
+  </si>
+  <si>
+    <t>let text = 'Peter: 123 Mark: 456';</t>
+  </si>
+  <si>
+    <t>let matches = text.match(regexp);</t>
+  </si>
+  <si>
+    <t>console.log(matches);</t>
+  </si>
+  <si>
+    <t>(2) ['Peter: 123', 'Mark: 456']</t>
+  </si>
+  <si>
+    <r>
+      <t>let matches = text.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(regexp);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let regexp = /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[A-Z][a-z]+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\d+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/g;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let regexp = /</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[A-Z][a-z]+: \d+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/g;</t>
+    </r>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Match 1   0-10   Peter: 123</t>
+  </si>
+  <si>
+    <t>Group1    0-5   Peter</t>
+  </si>
+  <si>
+    <t>Group2    7-10   123</t>
+  </si>
+  <si>
+    <t>Group1    11-15   Mark</t>
+  </si>
+  <si>
+    <t>Group2    17-20   456</t>
+  </si>
+  <si>
+    <t>Group1  0-10   Peter: 123</t>
+  </si>
+  <si>
+    <t>Match 2   11-20   Mark: 456</t>
+  </si>
+  <si>
+    <t>Group1   11-20   Mark: 456</t>
+  </si>
+  <si>
+    <t>let regexp = /[A-Z][a-z]+: \d+/g;</t>
+  </si>
+  <si>
+    <t>const text = 'Peter: 123 Mark: 456';</t>
+  </si>
+  <si>
+    <t>let replacement = '999';</t>
+  </si>
+  <si>
+    <t>let regexp = /\d{3}/g;</t>
+  </si>
+  <si>
+    <t>let result = text.replace(regexp, replacement);</t>
+  </si>
+  <si>
+    <t>Replacing with RegExp</t>
+  </si>
+  <si>
+    <t>The method replace(regexp, stringReplacement)</t>
+  </si>
+  <si>
+    <t>Replaces all strings that match the pattern with the provided replacement</t>
+  </si>
+  <si>
+    <t>Peter: 999 Mark: 999</t>
+  </si>
+  <si>
+    <t>let text = '1 2   3  4';</t>
+  </si>
+  <si>
+    <t>let regexp = /\s+/g;</t>
+  </si>
+  <si>
+    <t>let result = text.split(regexp);</t>
+  </si>
+  <si>
+    <t>(4) ['1', '2', '3', '4']</t>
+  </si>
+  <si>
+    <t>Splitting with RegExp</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The method </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(regexp)</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns an array of strings</t>
   </si>
 </sst>
 </file>
@@ -33243,10 +34474,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA47A20"/>
+      <color rgb="FFA626A4"/>
+      <color rgb="FFDA7BB9"/>
       <color rgb="FF7D7DFF"/>
-      <color rgb="FFA626A4"/>
-      <color rgb="FFA47A20"/>
-      <color rgb="FFDA7BB9"/>
       <color rgb="FFCCA504"/>
       <color rgb="FF179A77"/>
       <color rgb="FF1AB188"/>
@@ -35996,9 +37227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -38327,8 +39556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M698"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C411" sqref="C411"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46264,9 +47493,9 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M332"/>
+  <dimension ref="A1:O529"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -48305,7 +49534,7 @@
         <v>3181</v>
       </c>
     </row>
-    <row r="322" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B322" s="6" t="s">
         <v>3176</v>
       </c>
@@ -48320,7 +49549,7 @@
       <c r="J322" s="18"/>
       <c r="K322" s="7"/>
     </row>
-    <row r="323" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B323" s="8" t="s">
         <v>3183</v>
       </c>
@@ -48335,7 +49564,7 @@
       <c r="J323" s="19"/>
       <c r="K323" s="9"/>
     </row>
-    <row r="324" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B324" s="8" t="s">
         <v>3184</v>
       </c>
@@ -48348,7 +49577,7 @@
       <c r="J324" s="19"/>
       <c r="K324" s="9"/>
     </row>
-    <row r="325" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B325" s="8" t="s">
         <v>3094</v>
       </c>
@@ -48363,7 +49592,7 @@
       <c r="J325" s="19"/>
       <c r="K325" s="9"/>
     </row>
-    <row r="326" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B326" s="10" t="s">
         <v>3178</v>
       </c>
@@ -48376,7 +49605,7 @@
       <c r="J326" s="26"/>
       <c r="K326" s="11"/>
     </row>
-    <row r="329" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B329" s="6" t="s">
         <v>3182</v>
       </c>
@@ -48384,7 +49613,7 @@
       <c r="D329" s="18"/>
       <c r="E329" s="7"/>
     </row>
-    <row r="330" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B330" s="8" t="s">
         <v>3185</v>
       </c>
@@ -48392,19 +49621,1250 @@
       <c r="D330" s="19"/>
       <c r="E330" s="9"/>
     </row>
-    <row r="331" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B331" s="8"/>
       <c r="C331" s="19"/>
       <c r="D331" s="19"/>
       <c r="E331" s="9"/>
     </row>
-    <row r="332" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B332" s="10" t="s">
         <v>3178</v>
       </c>
       <c r="C332" s="26"/>
       <c r="D332" s="26"/>
       <c r="E332" s="11"/>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A334" s="27" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B335" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B336" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B338" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B340" s="6" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C340" s="18"/>
+      <c r="D340" s="18"/>
+      <c r="E340" s="18"/>
+      <c r="F340" s="7"/>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B341" s="8" t="s">
+        <v>3213</v>
+      </c>
+      <c r="C341" s="19"/>
+      <c r="D341" s="19"/>
+      <c r="E341" s="19"/>
+      <c r="F341" s="9"/>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B342" s="8"/>
+      <c r="C342" s="19"/>
+      <c r="D342" s="19"/>
+      <c r="E342" s="19"/>
+      <c r="F342" s="9"/>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B343" s="8" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C343" s="19"/>
+      <c r="D343" s="19"/>
+      <c r="E343" s="195" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F343" s="9"/>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B344" s="10" t="s">
+        <v>3209</v>
+      </c>
+      <c r="C344" s="26"/>
+      <c r="D344" s="26"/>
+      <c r="E344" s="196" t="s">
+        <v>3211</v>
+      </c>
+      <c r="F344" s="11"/>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A347" s="27" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A348" s="27"/>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A349" s="27" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B350" s="6" t="s">
+        <v>3215</v>
+      </c>
+      <c r="C350" s="18"/>
+      <c r="D350" s="7"/>
+      <c r="F350" s="6" t="s">
+        <v>3220</v>
+      </c>
+      <c r="G350" s="18"/>
+      <c r="H350" s="18"/>
+      <c r="I350" s="7"/>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B351" s="8"/>
+      <c r="C351" s="19"/>
+      <c r="D351" s="9"/>
+      <c r="F351" s="8" t="s">
+        <v>3221</v>
+      </c>
+      <c r="G351" s="19"/>
+      <c r="H351" s="19"/>
+      <c r="I351" s="9"/>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B352" s="8" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C352" s="19"/>
+      <c r="D352" s="9"/>
+      <c r="F352" s="8" t="s">
+        <v>3222</v>
+      </c>
+      <c r="G352" s="19"/>
+      <c r="H352" s="19"/>
+      <c r="I352" s="9"/>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B353" s="10" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C353" s="26"/>
+      <c r="D353" s="145" t="s">
+        <v>3218</v>
+      </c>
+      <c r="F353" s="10" t="s">
+        <v>3223</v>
+      </c>
+      <c r="G353" s="26"/>
+      <c r="H353" s="196" t="s">
+        <v>2064</v>
+      </c>
+      <c r="I353" s="11"/>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A355" s="27" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B356" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B357" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B358" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D358" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A360" s="27" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B361" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B362" t="s">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B363" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B365" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C366" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B368" s="6" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C368" s="18"/>
+      <c r="D368" s="18"/>
+      <c r="E368" s="18"/>
+      <c r="F368" s="7"/>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B369" s="8" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C369" s="19"/>
+      <c r="D369" s="19"/>
+      <c r="E369" s="19"/>
+      <c r="F369" s="9"/>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B370" s="8" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C370" s="19"/>
+      <c r="D370" s="19"/>
+      <c r="E370" s="195" t="s">
+        <v>3232</v>
+      </c>
+      <c r="F370" s="9"/>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B371" s="10" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C371" s="26"/>
+      <c r="D371" s="26"/>
+      <c r="E371" s="196" t="s">
+        <v>3233</v>
+      </c>
+      <c r="F371" s="11"/>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B373" s="27" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="374" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B374" s="6" t="s">
+        <v>3235</v>
+      </c>
+      <c r="C374" s="18"/>
+      <c r="D374" s="18"/>
+      <c r="E374" s="18"/>
+      <c r="F374" s="7"/>
+    </row>
+    <row r="375" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B375" s="8" t="s">
+        <v>3236</v>
+      </c>
+      <c r="C375" s="19"/>
+      <c r="D375" s="19"/>
+      <c r="E375" s="19"/>
+      <c r="F375" s="9"/>
+    </row>
+    <row r="376" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B376" s="8"/>
+      <c r="C376" s="19"/>
+      <c r="D376" s="19"/>
+      <c r="E376" s="19"/>
+      <c r="F376" s="9"/>
+    </row>
+    <row r="377" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B377" s="10" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C377" s="26"/>
+      <c r="D377" s="196" t="s">
+        <v>3237</v>
+      </c>
+      <c r="E377" s="26"/>
+      <c r="F377" s="11"/>
+    </row>
+    <row r="379" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B379" s="27" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="380" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B380" s="6" t="s">
+        <v>3240</v>
+      </c>
+      <c r="C380" s="18"/>
+      <c r="D380" s="18"/>
+      <c r="E380" s="18"/>
+      <c r="F380" s="7"/>
+    </row>
+    <row r="381" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B381" s="8" t="s">
+        <v>3241</v>
+      </c>
+      <c r="C381" s="19"/>
+      <c r="D381" s="19"/>
+      <c r="E381" s="19"/>
+      <c r="F381" s="9"/>
+    </row>
+    <row r="382" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B382" s="8"/>
+      <c r="C382" s="19"/>
+      <c r="D382" s="19"/>
+      <c r="E382" s="19"/>
+      <c r="F382" s="9"/>
+    </row>
+    <row r="383" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B383" s="10" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C383" s="26"/>
+      <c r="D383" s="196" t="s">
+        <v>3242</v>
+      </c>
+      <c r="E383" s="26"/>
+      <c r="F383" s="11"/>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B385" s="27" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B386" s="6" t="s">
+        <v>3243</v>
+      </c>
+      <c r="C386" s="18"/>
+      <c r="D386" s="18"/>
+      <c r="E386" s="18"/>
+      <c r="F386" s="7"/>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B387" s="8" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C387" s="19"/>
+      <c r="D387" s="19"/>
+      <c r="E387" s="19"/>
+      <c r="F387" s="9"/>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B388" s="10" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C388" s="26"/>
+      <c r="D388" s="26"/>
+      <c r="E388" s="196" t="s">
+        <v>3245</v>
+      </c>
+      <c r="F388" s="11"/>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B390" s="27" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B391" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B392" s="6" t="s">
+        <v>3252</v>
+      </c>
+      <c r="C392" s="18"/>
+      <c r="D392" s="18"/>
+      <c r="E392" s="18"/>
+      <c r="F392" s="18"/>
+      <c r="G392" s="18"/>
+      <c r="H392" s="7"/>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B393" s="8" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C393" s="19"/>
+      <c r="D393" s="19"/>
+      <c r="E393" s="19"/>
+      <c r="F393" s="19"/>
+      <c r="G393" s="19"/>
+      <c r="H393" s="9"/>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B394" s="8"/>
+      <c r="C394" s="19"/>
+      <c r="D394" s="19"/>
+      <c r="E394" s="19"/>
+      <c r="F394" s="19"/>
+      <c r="G394" s="19"/>
+      <c r="H394" s="9"/>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B395" s="10" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C395" s="26"/>
+      <c r="D395" s="26"/>
+      <c r="E395" s="196" t="s">
+        <v>3253</v>
+      </c>
+      <c r="F395" s="26"/>
+      <c r="G395" s="26"/>
+      <c r="H395" s="11"/>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A397" s="27" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B398" s="6" t="s">
+        <v>3256</v>
+      </c>
+      <c r="C398" s="18"/>
+      <c r="D398" s="7"/>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B399" s="8" t="s">
+        <v>3257</v>
+      </c>
+      <c r="C399" s="19"/>
+      <c r="D399" s="9"/>
+      <c r="E399" s="3" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B400" s="8" t="s">
+        <v>3258</v>
+      </c>
+      <c r="C400" s="19"/>
+      <c r="D400" s="9"/>
+      <c r="E400" s="3" t="s">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B401" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C401" s="26"/>
+      <c r="D401" s="11"/>
+      <c r="E401" s="3" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B403" s="27" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B404" s="6" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C404" s="18"/>
+      <c r="D404" s="18"/>
+      <c r="E404" s="18"/>
+      <c r="F404" s="7"/>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B405" s="8" t="s">
+        <v>3266</v>
+      </c>
+      <c r="C405" s="19"/>
+      <c r="D405" s="19"/>
+      <c r="E405" s="19"/>
+      <c r="F405" s="9"/>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B406" s="8" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C406" s="19"/>
+      <c r="D406" s="19"/>
+      <c r="E406" s="19"/>
+      <c r="F406" s="9"/>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B407" s="8" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C407" s="19"/>
+      <c r="D407" s="19"/>
+      <c r="E407" s="19"/>
+      <c r="F407" s="9"/>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B408" s="8" t="s">
+        <v>3262</v>
+      </c>
+      <c r="C408" s="19"/>
+      <c r="D408" s="19"/>
+      <c r="E408" s="19"/>
+      <c r="F408" s="9"/>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B409" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C409" s="19"/>
+      <c r="D409" s="19"/>
+      <c r="E409" s="19"/>
+      <c r="F409" s="9"/>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B410" s="8" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C410" s="19"/>
+      <c r="D410" s="19"/>
+      <c r="E410" s="19"/>
+      <c r="F410" s="9"/>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B411" s="10"/>
+      <c r="C411" s="196" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D411" s="26"/>
+      <c r="E411" s="26"/>
+      <c r="F411" s="11"/>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A413" s="27" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B414" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B415" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C416" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="418" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B418" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="421" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B421" s="6" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C421" s="18"/>
+      <c r="D421" s="18"/>
+      <c r="E421" s="7"/>
+    </row>
+    <row r="422" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B422" s="8" t="s">
+        <v>3278</v>
+      </c>
+      <c r="C422" s="19"/>
+      <c r="D422" s="19"/>
+      <c r="E422" s="9"/>
+    </row>
+    <row r="423" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B423" s="8"/>
+      <c r="C423" s="19"/>
+      <c r="D423" s="19"/>
+      <c r="E423" s="9"/>
+    </row>
+    <row r="424" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B424" s="10" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C424" s="26"/>
+      <c r="D424" s="196" t="s">
+        <v>3274</v>
+      </c>
+      <c r="E424" s="11"/>
+    </row>
+    <row r="427" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B427" s="6" t="s">
+        <v>3275</v>
+      </c>
+      <c r="C427" s="18"/>
+      <c r="D427" s="18"/>
+      <c r="E427" s="18"/>
+      <c r="F427" s="7"/>
+    </row>
+    <row r="428" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B428" s="10" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C428" s="26"/>
+      <c r="D428" s="26"/>
+      <c r="E428" s="196" t="s">
+        <v>3276</v>
+      </c>
+      <c r="F428" s="11"/>
+    </row>
+    <row r="430" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B430" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="431" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C431" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="432" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C432" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A434" s="27" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B435" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B436" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B438" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C439" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B442" s="6" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C442" s="18"/>
+      <c r="D442" s="18"/>
+      <c r="E442" s="18"/>
+      <c r="F442" s="7"/>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B443" s="8" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C443" s="19"/>
+      <c r="D443" s="19"/>
+      <c r="E443" s="19"/>
+      <c r="F443" s="144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B444" s="10" t="s">
+        <v>3288</v>
+      </c>
+      <c r="C444" s="26"/>
+      <c r="D444" s="26"/>
+      <c r="E444" s="26"/>
+      <c r="F444" s="145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B446" s="6" t="s">
+        <v>3289</v>
+      </c>
+      <c r="C446" s="18"/>
+      <c r="D446" s="18"/>
+      <c r="E446" s="18"/>
+      <c r="F446" s="7"/>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B447" s="10" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C447" s="26"/>
+      <c r="D447" s="26"/>
+      <c r="E447" s="26"/>
+      <c r="F447" s="145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" s="27" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" s="27"/>
+      <c r="B451" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452" s="27"/>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" s="27"/>
+      <c r="B453" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454" s="27"/>
+      <c r="C454" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B455" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B457" s="6" t="s">
+        <v>3292</v>
+      </c>
+      <c r="C457" s="18"/>
+      <c r="D457" s="18"/>
+      <c r="E457" s="7"/>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B458" s="8" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C458" s="19"/>
+      <c r="D458" s="19"/>
+      <c r="E458" s="9"/>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B459" s="10" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C459" s="26"/>
+      <c r="D459" s="26"/>
+      <c r="E459" s="11">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B461" s="27" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B462" s="6" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C462" s="18"/>
+      <c r="D462" s="18"/>
+      <c r="E462" s="7"/>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B463" s="8" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C463" s="19"/>
+      <c r="D463" s="19"/>
+      <c r="E463" s="9"/>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B464" s="10" t="s">
+        <v>3298</v>
+      </c>
+      <c r="C464" s="26"/>
+      <c r="D464" s="26"/>
+      <c r="E464" s="145" t="s">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A466" s="27" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B467" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B469" s="6" t="s">
+        <v>3292</v>
+      </c>
+      <c r="C469" s="18"/>
+      <c r="D469" s="18"/>
+      <c r="E469" s="7"/>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B470" s="8" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C470" s="19"/>
+      <c r="D470" s="19"/>
+      <c r="E470" s="9"/>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B471" s="10" t="s">
+        <v>3307</v>
+      </c>
+      <c r="C471" s="26"/>
+      <c r="D471" s="26"/>
+      <c r="E471" s="145">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B473" s="27" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B475" s="6" t="s">
+        <v>3309</v>
+      </c>
+      <c r="C475" s="18"/>
+      <c r="D475" s="18"/>
+      <c r="E475" s="7"/>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B476" s="8" t="s">
+        <v>3310</v>
+      </c>
+      <c r="C476" s="19"/>
+      <c r="D476" s="19"/>
+      <c r="E476" s="9"/>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B477" s="10" t="s">
+        <v>3307</v>
+      </c>
+      <c r="C477" s="26"/>
+      <c r="D477" s="26"/>
+      <c r="E477" s="145" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A479" s="27" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A481" s="27" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B482" s="27" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B483" s="6" t="s">
+        <v>3315</v>
+      </c>
+      <c r="C483" s="18"/>
+      <c r="D483" s="18"/>
+      <c r="E483" s="7"/>
+    </row>
+    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B484" s="8" t="s">
+        <v>3316</v>
+      </c>
+      <c r="C484" s="19"/>
+      <c r="D484" s="19"/>
+      <c r="E484" s="9"/>
+    </row>
+    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B485" s="8"/>
+      <c r="C485" s="19"/>
+      <c r="D485" s="19"/>
+      <c r="E485" s="9"/>
+    </row>
+    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B486" s="8" t="s">
+        <v>3317</v>
+      </c>
+      <c r="C486" s="19"/>
+      <c r="D486" s="19"/>
+      <c r="E486" s="9"/>
+    </row>
+    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B487" s="10" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C487" s="26"/>
+      <c r="D487" s="26"/>
+      <c r="E487" s="145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B488" s="19"/>
+      <c r="C488" s="19"/>
+      <c r="D488" s="19"/>
+      <c r="E488" s="19"/>
+    </row>
+    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A489" s="27" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B490" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B492" s="6" t="s">
+        <v>3320</v>
+      </c>
+      <c r="C492" s="18"/>
+      <c r="D492" s="18"/>
+      <c r="E492" s="7"/>
+      <c r="F492" s="19"/>
+      <c r="G492" s="6" t="s">
+        <v>3320</v>
+      </c>
+      <c r="H492" s="18"/>
+      <c r="I492" s="18"/>
+      <c r="J492" s="7"/>
+      <c r="L492" s="6" t="s">
+        <v>3320</v>
+      </c>
+      <c r="M492" s="18"/>
+      <c r="N492" s="18"/>
+      <c r="O492" s="7"/>
+    </row>
+    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B493" s="8" t="s">
+        <v>3325</v>
+      </c>
+      <c r="C493" s="19"/>
+      <c r="D493" s="19"/>
+      <c r="E493" s="9"/>
+      <c r="F493" s="19"/>
+      <c r="G493" s="8" t="s">
+        <v>3326</v>
+      </c>
+      <c r="H493" s="19"/>
+      <c r="I493" s="19"/>
+      <c r="J493" s="9"/>
+      <c r="L493" s="8" t="s">
+        <v>3336</v>
+      </c>
+      <c r="M493" s="19"/>
+      <c r="N493" s="19"/>
+      <c r="O493" s="9"/>
+    </row>
+    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B494" s="8"/>
+      <c r="C494" s="19"/>
+      <c r="D494" s="19"/>
+      <c r="E494" s="9"/>
+      <c r="F494" s="19"/>
+      <c r="G494" s="8"/>
+      <c r="H494" s="19"/>
+      <c r="I494" s="19"/>
+      <c r="J494" s="9"/>
+      <c r="L494" s="8"/>
+      <c r="M494" s="19"/>
+      <c r="N494" s="19"/>
+      <c r="O494" s="9"/>
+    </row>
+    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B495" s="8" t="s">
+        <v>3324</v>
+      </c>
+      <c r="C495" s="19"/>
+      <c r="D495" s="19"/>
+      <c r="E495" s="9"/>
+      <c r="F495" s="19"/>
+      <c r="G495" s="8" t="s">
+        <v>3321</v>
+      </c>
+      <c r="H495" s="19"/>
+      <c r="I495" s="19"/>
+      <c r="J495" s="9"/>
+      <c r="L495" s="8" t="s">
+        <v>3321</v>
+      </c>
+      <c r="M495" s="19"/>
+      <c r="N495" s="19"/>
+      <c r="O495" s="9"/>
+    </row>
+    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B496" s="8" t="s">
+        <v>3322</v>
+      </c>
+      <c r="C496" s="19"/>
+      <c r="D496" s="19"/>
+      <c r="E496" s="9"/>
+      <c r="F496" s="19"/>
+      <c r="G496" s="8" t="s">
+        <v>3322</v>
+      </c>
+      <c r="H496" s="19"/>
+      <c r="I496" s="19"/>
+      <c r="J496" s="9"/>
+      <c r="L496" s="8" t="s">
+        <v>3322</v>
+      </c>
+      <c r="M496" s="19"/>
+      <c r="N496" s="19"/>
+      <c r="O496" s="9"/>
+    </row>
+    <row r="497" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B497" s="10"/>
+      <c r="C497" s="196" t="s">
+        <v>3323</v>
+      </c>
+      <c r="D497" s="26"/>
+      <c r="E497" s="11"/>
+      <c r="F497" s="19"/>
+      <c r="G497" s="10"/>
+      <c r="H497" s="196" t="s">
+        <v>3323</v>
+      </c>
+      <c r="I497" s="26"/>
+      <c r="J497" s="11"/>
+      <c r="L497" s="147" t="s">
+        <v>3323</v>
+      </c>
+      <c r="M497" s="26"/>
+      <c r="N497" s="26"/>
+      <c r="O497" s="11"/>
+    </row>
+    <row r="499" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B499" t="s">
+        <v>3327</v>
+      </c>
+      <c r="G499" t="s">
+        <v>3327</v>
+      </c>
+      <c r="L499" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="500" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C500" t="s">
+        <v>3328</v>
+      </c>
+      <c r="G500" t="s">
+        <v>3328</v>
+      </c>
+      <c r="L500" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="501" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C501" t="s">
+        <v>3329</v>
+      </c>
+      <c r="G501" t="s">
+        <v>3333</v>
+      </c>
+      <c r="L501" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="502" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C502" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="504" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C504" t="s">
+        <v>3334</v>
+      </c>
+      <c r="G504" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="505" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C505" t="s">
+        <v>3331</v>
+      </c>
+      <c r="G505" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="506" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C506" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="508" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B508" s="27" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="509" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B509" s="27"/>
+      <c r="C509" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="510" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B510" s="27"/>
+      <c r="C510" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="511" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B511" s="27"/>
+    </row>
+    <row r="512" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B512" s="27"/>
+      <c r="C512" s="6" t="s">
+        <v>3337</v>
+      </c>
+      <c r="D512" s="18"/>
+      <c r="E512" s="18"/>
+      <c r="F512" s="18"/>
+      <c r="G512" s="7"/>
+    </row>
+    <row r="513" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C513" s="8"/>
+      <c r="D513" s="19"/>
+      <c r="E513" s="19"/>
+      <c r="F513" s="19"/>
+      <c r="G513" s="9"/>
+    </row>
+    <row r="514" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C514" s="8" t="s">
+        <v>3338</v>
+      </c>
+      <c r="D514" s="19"/>
+      <c r="E514" s="19"/>
+      <c r="F514" s="19"/>
+      <c r="G514" s="9"/>
+    </row>
+    <row r="515" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C515" s="8" t="s">
+        <v>3339</v>
+      </c>
+      <c r="D515" s="19"/>
+      <c r="E515" s="19"/>
+      <c r="F515" s="19"/>
+      <c r="G515" s="9"/>
+    </row>
+    <row r="516" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C516" s="8"/>
+      <c r="D516" s="19"/>
+      <c r="E516" s="19"/>
+      <c r="F516" s="19"/>
+      <c r="G516" s="9"/>
+    </row>
+    <row r="517" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C517" s="8" t="s">
+        <v>3340</v>
+      </c>
+      <c r="D517" s="19"/>
+      <c r="E517" s="19"/>
+      <c r="F517" s="19"/>
+      <c r="G517" s="9"/>
+    </row>
+    <row r="518" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C518" s="10" t="s">
+        <v>3223</v>
+      </c>
+      <c r="D518" s="26"/>
+      <c r="E518" s="26"/>
+      <c r="F518" s="196" t="s">
+        <v>3344</v>
+      </c>
+      <c r="G518" s="11"/>
+    </row>
+    <row r="520" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B520" s="27" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="521" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B521" s="27"/>
+      <c r="C521" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="522" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B522" s="27"/>
+      <c r="C522" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="523" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B523" s="27"/>
+    </row>
+    <row r="524" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C524" s="6" t="s">
+        <v>3345</v>
+      </c>
+      <c r="D524" s="18"/>
+      <c r="E524" s="7"/>
+    </row>
+    <row r="525" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C525" s="8"/>
+      <c r="D525" s="19"/>
+      <c r="E525" s="9"/>
+    </row>
+    <row r="526" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C526" s="8" t="s">
+        <v>3346</v>
+      </c>
+      <c r="D526" s="19"/>
+      <c r="E526" s="9"/>
+    </row>
+    <row r="527" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C527" s="8" t="s">
+        <v>3347</v>
+      </c>
+      <c r="D527" s="19"/>
+      <c r="E527" s="9"/>
+    </row>
+    <row r="528" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C528" s="8" t="s">
+        <v>3223</v>
+      </c>
+      <c r="D528" s="19"/>
+      <c r="E528" s="9"/>
+    </row>
+    <row r="529" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C529" s="10"/>
+      <c r="D529" s="196" t="s">
+        <v>3348</v>
+      </c>
+      <c r="E529" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/js_front_27.02.xlsx
+++ b/js_front_27.02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10008" tabRatio="751"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10008" tabRatio="751" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5297" uniqueCount="3352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5306" uniqueCount="3361">
   <si>
     <t>Exercise
 Introduction</t>
@@ -32070,12 +32070,6 @@
     <t>console.log(result);</t>
   </si>
   <si>
-    <t>let str = "I am JavaScript developer";</t>
-  </si>
-  <si>
-    <t>let sub = str.substring(5, 10);</t>
-  </si>
-  <si>
     <t>console.log(sub);</t>
   </si>
   <si>
@@ -33034,13 +33028,112 @@
   </si>
   <si>
     <t>Returns an array of strings</t>
+  </si>
+  <si>
+    <t>Vs Code shortcuts</t>
+  </si>
+  <si>
+    <t>Alt + Shift + F -&gt; автомаично фороматира текста</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shift + Alt + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>↓  -&gt; Crrl + D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shift + Alt + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>↑  -&gt; Crrl + D</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl +  Shift + X  -&gt; extensions bar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl +  Shift + P  -&gt; settings </t>
+  </si>
+  <si>
+    <t>Shift + del -&gt; изтрива целия ред</t>
+  </si>
+  <si>
+    <t>Ctrl + C -&gt; копира целия ред</t>
+  </si>
+  <si>
+    <r>
+      <t>let sub = str.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>substring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5, 10);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let str = "I am </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JavaS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cript developer";</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Alt + ↓↑  - &gt; премества текущия ред налоду а долния го качва </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="76" x14ac:knownFonts="1">
+  <fonts count="77" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33622,6 +33715,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -37227,7 +37326,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -39554,10 +39655,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M698"/>
+  <dimension ref="A1:M709"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A697" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C707" sqref="C707"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43794,7 +43895,7 @@
       <c r="J688" s="37"/>
       <c r="K688" s="38"/>
     </row>
-    <row r="689" spans="2:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="C689" s="36" t="s">
         <v>2238</v>
       </c>
@@ -43811,7 +43912,7 @@
       <c r="J689" s="19"/>
       <c r="K689" s="9"/>
     </row>
-    <row r="690" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C690" s="122" t="s">
         <v>390</v>
       </c>
@@ -43828,12 +43929,12 @@
       <c r="J690" s="37"/>
       <c r="K690" s="38"/>
     </row>
-    <row r="693" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B693" s="2" t="s">
         <v>2247</v>
       </c>
     </row>
-    <row r="694" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C694" s="148" t="s">
         <v>2248</v>
       </c>
@@ -43850,7 +43951,7 @@
       <c r="J694" s="18"/>
       <c r="K694" s="7"/>
     </row>
-    <row r="695" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C695" s="109" t="s">
         <v>2249</v>
       </c>
@@ -43867,7 +43968,7 @@
       <c r="J695" s="37"/>
       <c r="K695" s="38"/>
     </row>
-    <row r="696" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C696" s="24" t="s">
         <v>2250</v>
       </c>
@@ -43884,7 +43985,7 @@
       <c r="J696" s="19"/>
       <c r="K696" s="9"/>
     </row>
-    <row r="697" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C697" s="109" t="s">
         <v>2252</v>
       </c>
@@ -43901,7 +44002,7 @@
       <c r="J697" s="19"/>
       <c r="K697" s="9"/>
     </row>
-    <row r="698" spans="2:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="C698" s="122" t="s">
         <v>2255</v>
       </c>
@@ -43917,6 +44018,51 @@
       <c r="I698" s="26"/>
       <c r="J698" s="26"/>
       <c r="K698" s="11"/>
+    </row>
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A700" s="27" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B702" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B703" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B704" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="705" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B705" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="706" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B706" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="707" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B707" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="708" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B708" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="709" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B709" t="s">
+        <v>3360</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -48467,36 +48613,50 @@
       </c>
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B167" t="s">
+      <c r="B167" s="6" t="s">
         <v>3022</v>
       </c>
+      <c r="C167" s="18"/>
+      <c r="D167" s="18"/>
+      <c r="E167" s="18"/>
+      <c r="F167" s="7"/>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B168" t="s">
+      <c r="B168" s="8" t="s">
         <v>3061</v>
       </c>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="9"/>
       <c r="G168" t="s">
         <v>3028</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B169" t="s">
+      <c r="B169" s="8" t="s">
         <v>2964</v>
       </c>
-      <c r="E169" s="3" t="s">
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="195" t="s">
         <v>3024</v>
       </c>
+      <c r="F169" s="9"/>
       <c r="G169" t="s">
         <v>3026</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B170" t="s">
+      <c r="B170" s="10" t="s">
         <v>3023</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="C170" s="26"/>
+      <c r="D170" s="26"/>
+      <c r="E170" s="196" t="s">
         <v>3025</v>
       </c>
+      <c r="F170" s="11"/>
       <c r="G170" t="s">
         <v>3027</v>
       </c>
@@ -48507,30 +48667,44 @@
       </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B173" t="s">
+      <c r="B173" s="6" t="s">
         <v>3022</v>
       </c>
+      <c r="C173" s="18"/>
+      <c r="D173" s="18"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="7"/>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B174" t="s">
+      <c r="B174" s="8" t="s">
         <v>3030</v>
       </c>
+      <c r="C174" s="19"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="9"/>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B175" t="s">
+      <c r="B175" s="8" t="s">
         <v>2964</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="195" t="s">
         <v>3024</v>
       </c>
+      <c r="F175" s="9"/>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B176" t="s">
+      <c r="B176" s="10" t="s">
         <v>3023</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="C176" s="26"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="196" t="s">
         <v>3031</v>
       </c>
+      <c r="F176" s="11"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="27" t="s">
@@ -49771,45 +49945,45 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" s="27" t="s">
-        <v>3227</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
-        <v>3224</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B357" t="s">
-        <v>3225</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
+        <v>3224</v>
+      </c>
+      <c r="D358" s="3" t="s">
         <v>3226</v>
-      </c>
-      <c r="D358" t="s">
-        <v>3228</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" s="27" t="s">
-        <v>3229</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
-        <v>3247</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B362" t="s">
-        <v>3248</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B363" t="s">
-        <v>3249</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -49819,12 +49993,12 @@
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C366" t="s">
-        <v>3230</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B368" s="6" t="s">
-        <v>3231</v>
+        <v>3229</v>
       </c>
       <c r="C368" s="18"/>
       <c r="D368" s="18"/>
@@ -49833,7 +50007,7 @@
     </row>
     <row r="369" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B369" s="8" t="s">
-        <v>3234</v>
+        <v>3232</v>
       </c>
       <c r="C369" s="19"/>
       <c r="D369" s="19"/>
@@ -49847,7 +50021,7 @@
       <c r="C370" s="19"/>
       <c r="D370" s="19"/>
       <c r="E370" s="195" t="s">
-        <v>3232</v>
+        <v>3230</v>
       </c>
       <c r="F370" s="9"/>
     </row>
@@ -49858,18 +50032,18 @@
       <c r="C371" s="26"/>
       <c r="D371" s="26"/>
       <c r="E371" s="196" t="s">
-        <v>3233</v>
+        <v>3231</v>
       </c>
       <c r="F371" s="11"/>
     </row>
     <row r="373" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B373" s="27" t="s">
-        <v>3238</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="374" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B374" s="6" t="s">
-        <v>3235</v>
+        <v>3233</v>
       </c>
       <c r="C374" s="18"/>
       <c r="D374" s="18"/>
@@ -49878,7 +50052,7 @@
     </row>
     <row r="375" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B375" s="8" t="s">
-        <v>3236</v>
+        <v>3234</v>
       </c>
       <c r="C375" s="19"/>
       <c r="D375" s="19"/>
@@ -49898,19 +50072,19 @@
       </c>
       <c r="C377" s="26"/>
       <c r="D377" s="196" t="s">
-        <v>3237</v>
+        <v>3235</v>
       </c>
       <c r="E377" s="26"/>
       <c r="F377" s="11"/>
     </row>
     <row r="379" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B379" s="27" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="380" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B380" s="6" t="s">
-        <v>3240</v>
+        <v>3238</v>
       </c>
       <c r="C380" s="18"/>
       <c r="D380" s="18"/>
@@ -49919,7 +50093,7 @@
     </row>
     <row r="381" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B381" s="8" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
       <c r="C381" s="19"/>
       <c r="D381" s="19"/>
@@ -49939,19 +50113,19 @@
       </c>
       <c r="C383" s="26"/>
       <c r="D383" s="196" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
       <c r="E383" s="26"/>
       <c r="F383" s="11"/>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B385" s="27" t="s">
-        <v>3246</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B386" s="6" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
       <c r="C386" s="18"/>
       <c r="D386" s="18"/>
@@ -49960,7 +50134,7 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B387" s="8" t="s">
-        <v>3244</v>
+        <v>3242</v>
       </c>
       <c r="C387" s="19"/>
       <c r="D387" s="19"/>
@@ -49974,23 +50148,23 @@
       <c r="C388" s="26"/>
       <c r="D388" s="26"/>
       <c r="E388" s="196" t="s">
-        <v>3245</v>
+        <v>3243</v>
       </c>
       <c r="F388" s="11"/>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B390" s="27" t="s">
-        <v>3251</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B391" t="s">
-        <v>3250</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B392" s="6" t="s">
-        <v>3252</v>
+        <v>3250</v>
       </c>
       <c r="C392" s="18"/>
       <c r="D392" s="18"/>
@@ -50001,7 +50175,7 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B393" s="8" t="s">
-        <v>3254</v>
+        <v>3252</v>
       </c>
       <c r="C393" s="19"/>
       <c r="D393" s="19"/>
@@ -50026,7 +50200,7 @@
       <c r="C395" s="26"/>
       <c r="D395" s="26"/>
       <c r="E395" s="196" t="s">
-        <v>3253</v>
+        <v>3251</v>
       </c>
       <c r="F395" s="26"/>
       <c r="G395" s="26"/>
@@ -50034,34 +50208,34 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" s="27" t="s">
-        <v>3255</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B398" s="6" t="s">
-        <v>3256</v>
+        <v>3254</v>
       </c>
       <c r="C398" s="18"/>
       <c r="D398" s="7"/>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B399" s="8" t="s">
-        <v>3257</v>
+        <v>3255</v>
       </c>
       <c r="C399" s="19"/>
       <c r="D399" s="9"/>
       <c r="E399" s="3" t="s">
-        <v>3259</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B400" s="8" t="s">
-        <v>3258</v>
+        <v>3256</v>
       </c>
       <c r="C400" s="19"/>
       <c r="D400" s="9"/>
       <c r="E400" s="3" t="s">
-        <v>3260</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -50071,17 +50245,17 @@
       <c r="C401" s="26"/>
       <c r="D401" s="11"/>
       <c r="E401" s="3" t="s">
-        <v>3261</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B403" s="27" t="s">
-        <v>3268</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B404" s="6" t="s">
-        <v>3265</v>
+        <v>3263</v>
       </c>
       <c r="C404" s="18"/>
       <c r="D404" s="18"/>
@@ -50090,7 +50264,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B405" s="8" t="s">
-        <v>3266</v>
+        <v>3264</v>
       </c>
       <c r="C405" s="19"/>
       <c r="D405" s="19"/>
@@ -50099,7 +50273,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B406" s="8" t="s">
-        <v>3264</v>
+        <v>3262</v>
       </c>
       <c r="C406" s="19"/>
       <c r="D406" s="19"/>
@@ -50117,7 +50291,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B408" s="8" t="s">
-        <v>3262</v>
+        <v>3260</v>
       </c>
       <c r="C408" s="19"/>
       <c r="D408" s="19"/>
@@ -50135,7 +50309,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B410" s="8" t="s">
-        <v>3263</v>
+        <v>3261</v>
       </c>
       <c r="C410" s="19"/>
       <c r="D410" s="19"/>
@@ -50145,7 +50319,7 @@
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B411" s="10"/>
       <c r="C411" s="196" t="s">
-        <v>3267</v>
+        <v>3265</v>
       </c>
       <c r="D411" s="26"/>
       <c r="E411" s="26"/>
@@ -50153,12 +50327,12 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="27" t="s">
-        <v>3269</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B414" t="s">
-        <v>3270</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
@@ -50168,17 +50342,17 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C416" t="s">
-        <v>3271</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="418" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B418" t="s">
-        <v>3272</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="421" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B421" s="6" t="s">
-        <v>3273</v>
+        <v>3271</v>
       </c>
       <c r="C421" s="18"/>
       <c r="D421" s="18"/>
@@ -50186,7 +50360,7 @@
     </row>
     <row r="422" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B422" s="8" t="s">
-        <v>3278</v>
+        <v>3276</v>
       </c>
       <c r="C422" s="19"/>
       <c r="D422" s="19"/>
@@ -50204,13 +50378,13 @@
       </c>
       <c r="C424" s="26"/>
       <c r="D424" s="196" t="s">
-        <v>3274</v>
+        <v>3272</v>
       </c>
       <c r="E424" s="11"/>
     </row>
     <row r="427" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B427" s="6" t="s">
-        <v>3275</v>
+        <v>3273</v>
       </c>
       <c r="C427" s="18"/>
       <c r="D427" s="18"/>
@@ -50219,43 +50393,43 @@
     </row>
     <row r="428" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B428" s="10" t="s">
-        <v>3277</v>
+        <v>3275</v>
       </c>
       <c r="C428" s="26"/>
       <c r="D428" s="26"/>
       <c r="E428" s="196" t="s">
-        <v>3276</v>
+        <v>3274</v>
       </c>
       <c r="F428" s="11"/>
     </row>
     <row r="430" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B430" t="s">
-        <v>3279</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="431" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C431" t="s">
-        <v>3280</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="432" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C432" t="s">
-        <v>3281</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="27" t="s">
-        <v>3282</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B435" t="s">
-        <v>3283</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B436" t="s">
-        <v>3284</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
@@ -50265,12 +50439,12 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C439" t="s">
-        <v>3285</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B442" s="6" t="s">
-        <v>3286</v>
+        <v>3284</v>
       </c>
       <c r="C442" s="18"/>
       <c r="D442" s="18"/>
@@ -50279,7 +50453,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B443" s="8" t="s">
-        <v>3287</v>
+        <v>3285</v>
       </c>
       <c r="C443" s="19"/>
       <c r="D443" s="19"/>
@@ -50290,7 +50464,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B444" s="10" t="s">
-        <v>3288</v>
+        <v>3286</v>
       </c>
       <c r="C444" s="26"/>
       <c r="D444" s="26"/>
@@ -50301,7 +50475,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B446" s="6" t="s">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="C446" s="18"/>
       <c r="D446" s="18"/>
@@ -50310,7 +50484,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B447" s="10" t="s">
-        <v>3290</v>
+        <v>3288</v>
       </c>
       <c r="C447" s="26"/>
       <c r="D447" s="26"/>
@@ -50321,13 +50495,13 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="27" t="s">
-        <v>3291</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="27"/>
       <c r="B451" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
@@ -50336,23 +50510,23 @@
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="27"/>
       <c r="B453" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="27"/>
       <c r="C454" t="s">
-        <v>3300</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B455" t="s">
-        <v>3302</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B457" s="6" t="s">
-        <v>3292</v>
+        <v>3290</v>
       </c>
       <c r="C457" s="18"/>
       <c r="D457" s="18"/>
@@ -50360,7 +50534,7 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B458" s="8" t="s">
-        <v>3294</v>
+        <v>3292</v>
       </c>
       <c r="C458" s="19"/>
       <c r="D458" s="19"/>
@@ -50368,7 +50542,7 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B459" s="10" t="s">
-        <v>3293</v>
+        <v>3291</v>
       </c>
       <c r="C459" s="26"/>
       <c r="D459" s="26"/>
@@ -50378,12 +50552,12 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B461" s="27" t="s">
-        <v>3295</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B462" s="6" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="C462" s="18"/>
       <c r="D462" s="18"/>
@@ -50391,7 +50565,7 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B463" s="8" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
       <c r="C463" s="19"/>
       <c r="D463" s="19"/>
@@ -50399,27 +50573,27 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B464" s="10" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="C464" s="26"/>
       <c r="D464" s="26"/>
       <c r="E464" s="145" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="27" t="s">
-        <v>3303</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B467" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B469" s="6" t="s">
-        <v>3292</v>
+        <v>3290</v>
       </c>
       <c r="C469" s="18"/>
       <c r="D469" s="18"/>
@@ -50427,7 +50601,7 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B470" s="8" t="s">
-        <v>3306</v>
+        <v>3304</v>
       </c>
       <c r="C470" s="19"/>
       <c r="D470" s="19"/>
@@ -50435,7 +50609,7 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B471" s="10" t="s">
-        <v>3307</v>
+        <v>3305</v>
       </c>
       <c r="C471" s="26"/>
       <c r="D471" s="26"/>
@@ -50445,12 +50619,12 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B473" s="27" t="s">
-        <v>3308</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B475" s="6" t="s">
-        <v>3309</v>
+        <v>3307</v>
       </c>
       <c r="C475" s="18"/>
       <c r="D475" s="18"/>
@@ -50458,7 +50632,7 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B476" s="8" t="s">
-        <v>3310</v>
+        <v>3308</v>
       </c>
       <c r="C476" s="19"/>
       <c r="D476" s="19"/>
@@ -50466,32 +50640,32 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B477" s="10" t="s">
-        <v>3307</v>
+        <v>3305</v>
       </c>
       <c r="C477" s="26"/>
       <c r="D477" s="26"/>
       <c r="E477" s="145" t="s">
-        <v>3311</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="27" t="s">
-        <v>3312</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="481" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A481" s="27" t="s">
-        <v>3313</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="482" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B482" s="27" t="s">
-        <v>3314</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="483" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B483" s="6" t="s">
-        <v>3315</v>
+        <v>3313</v>
       </c>
       <c r="C483" s="18"/>
       <c r="D483" s="18"/>
@@ -50499,7 +50673,7 @@
     </row>
     <row r="484" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B484" s="8" t="s">
-        <v>3316</v>
+        <v>3314</v>
       </c>
       <c r="C484" s="19"/>
       <c r="D484" s="19"/>
@@ -50513,7 +50687,7 @@
     </row>
     <row r="486" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B486" s="8" t="s">
-        <v>3317</v>
+        <v>3315</v>
       </c>
       <c r="C486" s="19"/>
       <c r="D486" s="19"/>
@@ -50537,30 +50711,30 @@
     </row>
     <row r="489" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A489" s="27" t="s">
-        <v>3318</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="490" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B490" t="s">
-        <v>3319</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="492" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B492" s="6" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
       <c r="C492" s="18"/>
       <c r="D492" s="18"/>
       <c r="E492" s="7"/>
       <c r="F492" s="19"/>
       <c r="G492" s="6" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
       <c r="H492" s="18"/>
       <c r="I492" s="18"/>
       <c r="J492" s="7"/>
       <c r="L492" s="6" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
       <c r="M492" s="18"/>
       <c r="N492" s="18"/>
@@ -50568,20 +50742,20 @@
     </row>
     <row r="493" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B493" s="8" t="s">
-        <v>3325</v>
+        <v>3323</v>
       </c>
       <c r="C493" s="19"/>
       <c r="D493" s="19"/>
       <c r="E493" s="9"/>
       <c r="F493" s="19"/>
       <c r="G493" s="8" t="s">
-        <v>3326</v>
+        <v>3324</v>
       </c>
       <c r="H493" s="19"/>
       <c r="I493" s="19"/>
       <c r="J493" s="9"/>
       <c r="L493" s="8" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="M493" s="19"/>
       <c r="N493" s="19"/>
@@ -50604,20 +50778,20 @@
     </row>
     <row r="495" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B495" s="8" t="s">
-        <v>3324</v>
+        <v>3322</v>
       </c>
       <c r="C495" s="19"/>
       <c r="D495" s="19"/>
       <c r="E495" s="9"/>
       <c r="F495" s="19"/>
       <c r="G495" s="8" t="s">
-        <v>3321</v>
+        <v>3319</v>
       </c>
       <c r="H495" s="19"/>
       <c r="I495" s="19"/>
       <c r="J495" s="9"/>
       <c r="L495" s="8" t="s">
-        <v>3321</v>
+        <v>3319</v>
       </c>
       <c r="M495" s="19"/>
       <c r="N495" s="19"/>
@@ -50625,20 +50799,20 @@
     </row>
     <row r="496" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B496" s="8" t="s">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="C496" s="19"/>
       <c r="D496" s="19"/>
       <c r="E496" s="9"/>
       <c r="F496" s="19"/>
       <c r="G496" s="8" t="s">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="H496" s="19"/>
       <c r="I496" s="19"/>
       <c r="J496" s="9"/>
       <c r="L496" s="8" t="s">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="M496" s="19"/>
       <c r="N496" s="19"/>
@@ -50647,19 +50821,19 @@
     <row r="497" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B497" s="10"/>
       <c r="C497" s="196" t="s">
-        <v>3323</v>
+        <v>3321</v>
       </c>
       <c r="D497" s="26"/>
       <c r="E497" s="11"/>
       <c r="F497" s="19"/>
       <c r="G497" s="10"/>
       <c r="H497" s="196" t="s">
-        <v>3323</v>
+        <v>3321</v>
       </c>
       <c r="I497" s="26"/>
       <c r="J497" s="11"/>
       <c r="L497" s="147" t="s">
-        <v>3323</v>
+        <v>3321</v>
       </c>
       <c r="M497" s="26"/>
       <c r="N497" s="26"/>
@@ -50667,78 +50841,78 @@
     </row>
     <row r="499" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B499" t="s">
-        <v>3327</v>
+        <v>3325</v>
       </c>
       <c r="G499" t="s">
-        <v>3327</v>
+        <v>3325</v>
       </c>
       <c r="L499" t="s">
-        <v>3327</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="500" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C500" t="s">
-        <v>3328</v>
+        <v>3326</v>
       </c>
       <c r="G500" t="s">
-        <v>3328</v>
+        <v>3326</v>
       </c>
       <c r="L500" t="s">
-        <v>3328</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="501" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C501" t="s">
-        <v>3329</v>
+        <v>3327</v>
       </c>
       <c r="G501" t="s">
-        <v>3333</v>
+        <v>3331</v>
       </c>
       <c r="L501" t="s">
-        <v>3334</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="502" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C502" t="s">
-        <v>3330</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="504" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C504" t="s">
-        <v>3334</v>
+        <v>3332</v>
       </c>
       <c r="G504" t="s">
-        <v>3334</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="505" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C505" t="s">
-        <v>3331</v>
+        <v>3329</v>
       </c>
       <c r="G505" t="s">
-        <v>3335</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="506" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C506" t="s">
-        <v>3332</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="508" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B508" s="27" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="509" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B509" s="27"/>
       <c r="C509" t="s">
-        <v>3342</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="510" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B510" s="27"/>
       <c r="C510" t="s">
-        <v>3343</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="511" spans="2:15" x14ac:dyDescent="0.3">
@@ -50747,7 +50921,7 @@
     <row r="512" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B512" s="27"/>
       <c r="C512" s="6" t="s">
-        <v>3337</v>
+        <v>3335</v>
       </c>
       <c r="D512" s="18"/>
       <c r="E512" s="18"/>
@@ -50763,7 +50937,7 @@
     </row>
     <row r="514" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C514" s="8" t="s">
-        <v>3338</v>
+        <v>3336</v>
       </c>
       <c r="D514" s="19"/>
       <c r="E514" s="19"/>
@@ -50772,7 +50946,7 @@
     </row>
     <row r="515" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C515" s="8" t="s">
-        <v>3339</v>
+        <v>3337</v>
       </c>
       <c r="D515" s="19"/>
       <c r="E515" s="19"/>
@@ -50788,7 +50962,7 @@
     </row>
     <row r="517" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C517" s="8" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="D517" s="19"/>
       <c r="E517" s="19"/>
@@ -50802,25 +50976,25 @@
       <c r="D518" s="26"/>
       <c r="E518" s="26"/>
       <c r="F518" s="196" t="s">
-        <v>3344</v>
+        <v>3342</v>
       </c>
       <c r="G518" s="11"/>
     </row>
     <row r="520" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B520" s="27" t="s">
-        <v>3349</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="521" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B521" s="27"/>
       <c r="C521" t="s">
-        <v>3350</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="522" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B522" s="27"/>
       <c r="C522" t="s">
-        <v>3351</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="523" spans="2:7" x14ac:dyDescent="0.3">
@@ -50828,7 +51002,7 @@
     </row>
     <row r="524" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C524" s="6" t="s">
-        <v>3345</v>
+        <v>3343</v>
       </c>
       <c r="D524" s="18"/>
       <c r="E524" s="7"/>
@@ -50840,14 +51014,14 @@
     </row>
     <row r="526" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C526" s="8" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
       <c r="D526" s="19"/>
       <c r="E526" s="9"/>
     </row>
     <row r="527" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C527" s="8" t="s">
-        <v>3347</v>
+        <v>3345</v>
       </c>
       <c r="D527" s="19"/>
       <c r="E527" s="9"/>
@@ -50862,7 +51036,7 @@
     <row r="529" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C529" s="10"/>
       <c r="D529" s="196" t="s">
-        <v>3348</v>
+        <v>3346</v>
       </c>
       <c r="E529" s="11"/>
     </row>

--- a/js_front_27.02.xlsx
+++ b/js_front_27.02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10008" tabRatio="751" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10008" tabRatio="751"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="Git" sheetId="17" r:id="rId15"/>
     <sheet name="Exer Syntax" sheetId="19" r:id="rId16"/>
     <sheet name="Arrays Strings" sheetId="18" r:id="rId17"/>
+    <sheet name="Functions" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5306" uniqueCount="3361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5348" uniqueCount="3398">
   <si>
     <t>Exercise
 Introduction</t>
@@ -33127,6 +33128,314 @@
   </si>
   <si>
     <t xml:space="preserve">Alt + ↓↑  - &gt; премества текущия ред налоду а долния го качва </t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>What is ...rest</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The ...rest operator allows you to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>collect multiple elements into a single array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It is used when </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">you don't know how many arguments will be passed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">into the function or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>you want to group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> some remaining arguments</t>
+    </r>
+  </si>
+  <si>
+    <t>    console.log(first);</t>
+  </si>
+  <si>
+    <t>    console.log(second);</t>
+  </si>
+  <si>
+    <t>    console.log(rest);</t>
+  </si>
+  <si>
+    <t>(3) [30, 40, 50]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">solve(10, 20, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30, 40 , 50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(first, second, ...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <t>let numbers = [1, 2, 3, 4, 5];</t>
+  </si>
+  <si>
+    <t>let [first, second, ...rest] = numbers;</t>
+  </si>
+  <si>
+    <t>console.log(first);</t>
+  </si>
+  <si>
+    <t>console.log(second);</t>
+  </si>
+  <si>
+    <t>console.log(rest);</t>
+  </si>
+  <si>
+    <t>(3) [3, 4, 5]</t>
+  </si>
+  <si>
+    <t>let person = {</t>
+  </si>
+  <si>
+    <t>    name_: "John",</t>
+  </si>
+  <si>
+    <t>    age: 25,</t>
+  </si>
+  <si>
+    <t>    country: "USA",</t>
+  </si>
+  <si>
+    <t>    job: "Developer"</t>
+  </si>
+  <si>
+    <t>let {name_, ...rest} = person;</t>
+  </si>
+  <si>
+    <t>console.log(name_);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John </t>
+  </si>
+  <si>
+    <t>{age: 25, country: 'USA', job: 'Developer'}</t>
+  </si>
+  <si>
+    <t>What is the Spread Operator?</t>
+  </si>
+  <si>
+    <t>The Spread Operator (...) is used to expand elements from</t>
+  </si>
+  <si>
+    <t>Arrays, Objects, Function Arguments</t>
+  </si>
+  <si>
+    <t>It takes individual elements from an iterable (like an array or object) and spreads them into a new array, object, or function</t>
+  </si>
+  <si>
+    <t>console.log(newNumbers);</t>
+  </si>
+  <si>
+    <r>
+      <t>let numbers = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1, 2, 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>let newNumbers = [...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numbers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 4, 5];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1, 2, 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 4, 5]</t>
+    </r>
+  </si>
+  <si>
+    <t>function sum(a, b, c) {</t>
+  </si>
+  <si>
+    <t>    return a + b + c;</t>
+  </si>
+  <si>
+    <t>let nums = [10, 20, 30]</t>
+  </si>
+  <si>
+    <t>console.log(sum(...nums));</t>
   </si>
 </sst>
 </file>
@@ -34313,7 +34622,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF92D050"/>
@@ -34573,12 +34892,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF179A77"/>
       <color rgb="FFA47A20"/>
       <color rgb="FFA626A4"/>
       <color rgb="FFDA7BB9"/>
       <color rgb="FF7D7DFF"/>
       <color rgb="FFCCA504"/>
-      <color rgb="FF179A77"/>
       <color rgb="FF1AB188"/>
       <color rgb="FF73F2D0"/>
       <color rgb="FF181818"/>
@@ -37326,9 +37645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -37477,7 +37794,9 @@
         <v>3130</v>
       </c>
       <c r="G6" s="134"/>
-      <c r="H6" s="136"/>
+      <c r="H6" s="136" t="s">
+        <v>3361</v>
+      </c>
       <c r="I6" s="134"/>
       <c r="J6" s="136"/>
       <c r="K6" s="134"/>
@@ -37707,168 +38026,168 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2 D2 D4 D6 D8 D10 F8 F10 F2 F4">
-    <cfRule type="expression" dxfId="50" priority="105">
+    <cfRule type="expression" dxfId="50" priority="107">
       <formula>XEZ40=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="49" priority="102">
+    <cfRule type="expression" dxfId="49" priority="104">
       <formula>B40=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="expression" dxfId="48" priority="101">
+    <cfRule type="expression" dxfId="48" priority="103">
       <formula>D40=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="47" priority="100">
+    <cfRule type="expression" dxfId="47" priority="102">
       <formula>F40=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="46" priority="99">
+    <cfRule type="expression" dxfId="46" priority="101">
       <formula>F42=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="45" priority="98">
+    <cfRule type="expression" dxfId="45" priority="100">
       <formula>D42=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="44" priority="97">
+    <cfRule type="expression" dxfId="44" priority="99">
       <formula>B42=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="43" priority="94">
+    <cfRule type="expression" dxfId="43" priority="96">
       <formula>XEZ42=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
+  <conditionalFormatting sqref="L6">
     <cfRule type="expression" dxfId="42" priority="90">
-      <formula>B44=1</formula>
+      <formula>F44=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="41" priority="89">
+    <cfRule type="expression" dxfId="41" priority="91">
       <formula>D44=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="40" priority="88">
-      <formula>F44=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="39" priority="87">
+    <cfRule type="expression" dxfId="40" priority="89">
       <formula>F46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="38" priority="29">
+    <cfRule type="expression" dxfId="39" priority="31">
       <formula>B48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="37" priority="84">
+    <cfRule type="expression" dxfId="38" priority="86">
       <formula>F48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="36" priority="83">
+    <cfRule type="expression" dxfId="37" priority="85">
       <formula>D48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="35" priority="81">
+    <cfRule type="expression" dxfId="36" priority="83">
       <formula>D46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="34" priority="80">
+    <cfRule type="expression" dxfId="35" priority="82">
       <formula>B46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="33" priority="79">
+    <cfRule type="expression" dxfId="34" priority="81">
       <formula>B48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="32" priority="68">
+    <cfRule type="expression" dxfId="33" priority="70">
       <formula>XEZ46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="31" priority="64">
+    <cfRule type="expression" dxfId="32" priority="66">
       <formula>B46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="30" priority="63">
+    <cfRule type="expression" dxfId="31" priority="65">
       <formula>D46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="29" priority="62">
+    <cfRule type="expression" dxfId="30" priority="64">
       <formula>F46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="28" priority="61">
+    <cfRule type="expression" dxfId="29" priority="63">
       <formula>F48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="27" priority="60">
+    <cfRule type="expression" dxfId="28" priority="62">
       <formula>D48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="26" priority="59">
+    <cfRule type="expression" dxfId="27" priority="61">
       <formula>B48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="25" priority="33">
+    <cfRule type="expression" dxfId="26" priority="35">
       <formula>B40=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="24" priority="32">
+    <cfRule type="expression" dxfId="25" priority="34">
       <formula>B42=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="expression" dxfId="23" priority="31">
-      <formula>B44=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="22" priority="28">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>B46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="21" priority="27">
+    <cfRule type="expression" dxfId="23" priority="29">
       <formula>B48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
-    <cfRule type="expression" dxfId="20" priority="25">
+    <cfRule type="expression" dxfId="22" priority="27">
       <formula>D40=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="19" priority="24">
+    <cfRule type="expression" dxfId="21" priority="26">
       <formula>D42=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="18" priority="23">
+    <cfRule type="expression" dxfId="20" priority="25">
       <formula>D44=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="expression" dxfId="19" priority="23">
+      <formula>D48=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>D46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
@@ -37876,29 +38195,29 @@
       <formula>D48=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="16" priority="20">
-      <formula>D46=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="15" priority="19">
-      <formula>D48=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="14" priority="17">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>F40=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>F42=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="14" priority="17">
       <formula>F44=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>F48=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>F46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
@@ -37906,29 +38225,29 @@
       <formula>F48=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>F46=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="9" priority="11">
-      <formula>F48=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>XEZ46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>XEZ46=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>XFD44=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>XFD44=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>XFD44=1</formula>
+      <formula>XEZ48=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
@@ -37936,29 +38255,29 @@
       <formula>XFD44=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
+  <conditionalFormatting sqref="F6">
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>XEZ48=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>XFD44=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="2" priority="3">
       <formula>XFD44=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>XFB44=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>XFB44=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>B44=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>XFB44=1</formula>
+      <formula>B44=1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -37978,6 +38297,7 @@
     <hyperlink ref="B10" location="Git!A1" display="Git"/>
     <hyperlink ref="F6" location="'Arrays Strings'!A1" display="'Arrays Strings'!A1"/>
     <hyperlink ref="D6" location="'Exer Syntax'!A1" display="'Exer Syntax'!A1"/>
+    <hyperlink ref="H6" location="Functions!A1" display="Functions"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -39657,8 +39977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M709"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A697" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C707" sqref="C707"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51047,6 +51367,375 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>3365</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="195">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="195">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>3367</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="195" t="s">
+        <v>3368</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>3369</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>3372</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>3373</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="195">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>3374</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="195">
+        <v>2</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
+        <v>3375</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="196" t="s">
+        <v>3376</v>
+      </c>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>3378</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
+        <v>3382</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="195" t="s">
+        <v>3384</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
+        <v>3375</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="196" t="s">
+        <v>3385</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="6" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="8" t="s">
+        <v>3392</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="8"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="8" t="s">
+        <v>3390</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="10"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="196" t="s">
+        <v>3393</v>
+      </c>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="6" t="s">
+        <v>3394</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="8" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="8"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="8" t="s">
+        <v>3396</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="10" t="s">
+        <v>3397</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="145">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F1" location="Home!A1" display="Home!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/js_front_27.02.xlsx
+++ b/js_front_27.02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10008" tabRatio="751" firstSheet="1" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10008" tabRatio="751" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5389" uniqueCount="3433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5413" uniqueCount="3448">
   <si>
     <t>Exercise
 Introduction</t>
@@ -33831,9 +33831,6 @@
     <t>3. Return only those elements that satisfy the condition (greater than 10)</t>
   </si>
   <si>
-    <t>javaScript</t>
-  </si>
-  <si>
     <r>
       <t>result = list(filter(</t>
     </r>
@@ -33883,6 +33880,301 @@
         <scheme val="minor"/>
       </rPr>
       <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>функциите в js се водят първокласни елементи(елементи от първи ред)</t>
+  </si>
+  <si>
+    <t>можем да ги третираме като променливи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return Boolean(number % 2)</t>
+  </si>
+  <si>
+    <t>console.log(oddNumbers)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oddValues</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(number) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numbers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = [5, 12, 8, 15, 3]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let oddNumbers = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numbers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7D7DFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oddValues</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>(3) [5, 15, 3]</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>console.log(evenNumbers)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(number) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let evenNumbers = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numbers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.filter(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    return number % 2 === 0;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">numbers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= [1, 2, 3, 4, 5];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numbers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = [1, 2, 3, 4, 5];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = x =&gt; x % 2 === 0;</t>
     </r>
   </si>
 </sst>
@@ -35333,11 +35625,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF7D7DFF"/>
       <color rgb="FFA47A20"/>
-      <color rgb="FF7D7DFF"/>
+      <color rgb="FFDA7BB9"/>
+      <color rgb="FFA626A4"/>
       <color rgb="FF179A77"/>
-      <color rgb="FFA626A4"/>
-      <color rgb="FFDA7BB9"/>
       <color rgb="FFCCA504"/>
       <color rgb="FF1AB188"/>
       <color rgb="FF73F2D0"/>
@@ -35920,7 +36212,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -35940,7 +36232,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -36878,7 +37170,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -36898,7 +37190,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -37074,7 +37366,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -37094,7 +37386,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -37129,7 +37421,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -37149,7 +37441,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -37877,7 +38169,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -40210,8 +40502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M709"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -40267,7 +40559,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="C14" t="s">
+      <c r="C14" s="168" t="s">
         <v>1935</v>
       </c>
     </row>
@@ -51605,10 +51897,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -51619,148 +51911,105 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="27" t="s">
-        <v>3362</v>
+      <c r="A4" s="2" t="s">
+        <v>3361</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>3363</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="27" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
         <v>3364</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="6" t="s">
+    <row r="15" spans="1:6">
+      <c r="B15" s="6" t="s">
         <v>3370</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="8" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="8" t="s">
         <v>3365</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="195">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="195">
         <v>10</v>
       </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="8" t="s">
-        <v>3366</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="195">
-        <v>20</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="8" t="s">
-        <v>3367</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="195" t="s">
-        <v>3368</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="8"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="10" t="s">
-        <v>3369</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="6" t="s">
-        <v>3371</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="8" t="s">
-        <v>3372</v>
+        <v>3366</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="E17" s="195">
+        <v>20</v>
+      </c>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>3367</v>
+      </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="E18" s="195" t="s">
+        <v>3368</v>
+      </c>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="8" t="s">
-        <v>3373</v>
+        <v>46</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="195">
-        <v>1</v>
-      </c>
+      <c r="E19" s="19"/>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="8" t="s">
-        <v>3374</v>
-      </c>
+      <c r="B20" s="8"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="195">
-        <v>2</v>
-      </c>
+      <c r="E20" s="19"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="10" t="s">
-        <v>3375</v>
+        <v>3369</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
-      <c r="E21" s="196" t="s">
-        <v>3376</v>
-      </c>
+      <c r="E21" s="26"/>
       <c r="F21" s="11"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="6" t="s">
-        <v>3377</v>
+        <v>3371</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -51769,7 +52018,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="8" t="s">
-        <v>3378</v>
+        <v>3372</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
@@ -51777,9 +52026,7 @@
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="8" t="s">
-        <v>3379</v>
-      </c>
+      <c r="B25" s="8"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -51787,49 +52034,50 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="8" t="s">
-        <v>3380</v>
+        <v>3373</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="E26" s="195">
+        <v>1</v>
+      </c>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="8" t="s">
-        <v>3381</v>
+        <v>3374</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="E27" s="195">
+        <v>2</v>
+      </c>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="8"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="9"/>
+      <c r="B28" s="10" t="s">
+        <v>3375</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="196" t="s">
+        <v>3376</v>
+      </c>
+      <c r="F28" s="11"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="8" t="s">
-        <v>3382</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="9"/>
+      <c r="B30" s="6" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="8"/>
+      <c r="B31" s="8" t="s">
+        <v>3378</v>
+      </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -51837,103 +52085,116 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="8" t="s">
-        <v>3383</v>
+        <v>3379</v>
       </c>
       <c r="C32" s="19"/>
-      <c r="D32" s="195" t="s">
-        <v>3384</v>
-      </c>
+      <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="B34" s="8" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="B35" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" s="8"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37" s="8" t="s">
+        <v>3382</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" s="8"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" s="8" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="195" t="s">
+        <v>3384</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" s="10" t="s">
         <v>3375</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="196" t="s">
+      <c r="C40" s="26"/>
+      <c r="D40" s="196" t="s">
         <v>3385</v>
       </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="27" t="s">
+      <c r="E40" s="26"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="27" t="s">
         <v>3386</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="B36" t="s">
+    <row r="43" spans="1:6">
+      <c r="B43" t="s">
         <v>3387</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="C37" t="s">
+    <row r="44" spans="1:6">
+      <c r="C44" t="s">
         <v>3388</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="B38" t="s">
+    <row r="45" spans="1:6">
+      <c r="B45" t="s">
         <v>3389</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="B40" s="6" t="s">
+    <row r="47" spans="1:6">
+      <c r="B47" s="6" t="s">
         <v>3391</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="8" t="s">
-        <v>3392</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="B42" s="8"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="B43" s="8" t="s">
-        <v>3390</v>
-      </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="B44" s="10"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="196" t="s">
-        <v>3393</v>
-      </c>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="B46" s="6" t="s">
-        <v>3394</v>
-      </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="B47" s="8" t="s">
-        <v>3395</v>
-      </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="9"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:6">
       <c r="B48" s="8" t="s">
-        <v>46</v>
+        <v>3392</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
@@ -51947,283 +52208,230 @@
     </row>
     <row r="50" spans="1:5">
       <c r="B50" s="8" t="s">
-        <v>3396</v>
+        <v>3390</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="9"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="B51" s="10" t="s">
-        <v>3397</v>
-      </c>
+      <c r="B51" s="10"/>
       <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="145">
-        <v>60</v>
-      </c>
+      <c r="D51" s="196" t="s">
+        <v>3393</v>
+      </c>
+      <c r="E51" s="11"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="2" t="s">
-        <v>3401</v>
-      </c>
+      <c r="B53" s="6" t="s">
+        <v>3394</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="2"/>
-      <c r="B54" s="204" t="s">
-        <v>3401</v>
-      </c>
+      <c r="B54" s="8" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="B55" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="9"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="B56" s="6" t="s">
-        <v>3402</v>
-      </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:5">
       <c r="B57" s="8" t="s">
-        <v>3403</v>
+        <v>3396</v>
       </c>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="B58" s="8"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="B59" s="8" t="s">
-        <v>3398</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>3399</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>3400</v>
-      </c>
-      <c r="E59" s="9"/>
+      <c r="B58" s="10" t="s">
+        <v>3397</v>
+      </c>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="145">
+        <v>60</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="B60" s="8" t="s">
-        <v>3404</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="9"/>
+      <c r="A60" s="2" t="s">
+        <v>3401</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="B61" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="9"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="B62" s="8" t="s">
-        <v>3405</v>
-      </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="9"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="204" t="s">
+        <v>3401</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="B63" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="9"/>
+      <c r="B63" s="6" t="s">
+        <v>3402</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="7"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="B64" s="8"/>
+      <c r="B64" s="8" t="s">
+        <v>3403</v>
+      </c>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="9"/>
     </row>
-    <row r="65" spans="1:12">
-      <c r="B65" s="8" t="s">
-        <v>3406</v>
-      </c>
+    <row r="65" spans="1:5">
+      <c r="B65" s="8"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
-      <c r="E65" s="144">
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" s="8" t="s">
+        <v>3398</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>3399</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="9"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="B67" s="8" t="s">
+        <v>3404</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="B68" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="9"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="B69" s="8" t="s">
+        <v>3405</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="9"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="B70" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="B71" s="8"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="9"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="B72" s="8" t="s">
+        <v>3406</v>
+      </c>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="144">
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
-      <c r="B66" s="10" t="s">
+    <row r="73" spans="1:5">
+      <c r="B73" s="10" t="s">
         <v>3407</v>
       </c>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="145">
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="145">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="2" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" s="2" t="s">
         <v>3410</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
-      <c r="B70" t="s">
+    <row r="77" spans="1:5">
+      <c r="B77" t="s">
         <v>3409</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
-      <c r="B72" t="s">
+    <row r="79" spans="1:5">
+      <c r="B79" t="s">
         <v>3408</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
-      <c r="B74" s="2" t="s">
+    <row r="81" spans="2:12">
+      <c r="B81" s="2" t="s">
         <v>1718</v>
       </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="B75" s="205" t="s">
+      <c r="H81" s="2" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12">
+      <c r="B82" s="205" t="s">
         <v>3411</v>
       </c>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="7"/>
-      <c r="H75" s="205" t="s">
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="7"/>
+      <c r="H82" s="205" t="s">
         <v>3417</v>
       </c>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="7"/>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="B76" s="8" t="s">
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="7"/>
+    </row>
+    <row r="83" spans="2:12">
+      <c r="B83" s="8" t="s">
         <v>3425</v>
-      </c>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="9"/>
-      <c r="H76" s="8" t="s">
-        <v>3422</v>
-      </c>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="9"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="B77" s="8" t="s">
-        <v>3412</v>
-      </c>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="9"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="9"/>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="B78" s="8"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="9"/>
-      <c r="H78" s="8" t="s">
-        <v>3421</v>
-      </c>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="9"/>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="B79" s="206" t="s">
-        <v>3413</v>
-      </c>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="9"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="9"/>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="B80" s="8" t="s">
-        <v>3414</v>
-      </c>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="9"/>
-      <c r="H80" s="206" t="s">
-        <v>3418</v>
-      </c>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="9"/>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="B81" s="8"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="9"/>
-      <c r="H81" s="8" t="s">
-        <v>3423</v>
-      </c>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="9"/>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="B82" s="206" t="s">
-        <v>3415</v>
-      </c>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="9"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="9"/>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="B83" s="8" t="s">
-        <v>3424</v>
       </c>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
       <c r="F83" s="9"/>
       <c r="H83" s="8" t="s">
-        <v>3419</v>
+        <v>3422</v>
       </c>
       <c r="I83" s="19"/>
-      <c r="J83" s="19" t="s">
-        <v>3420</v>
-      </c>
+      <c r="J83" s="19"/>
       <c r="K83" s="19"/>
       <c r="L83" s="9"/>
     </row>
-    <row r="84" spans="1:12">
-      <c r="B84" s="8"/>
+    <row r="84" spans="2:12">
+      <c r="B84" s="8" t="s">
+        <v>3412</v>
+      </c>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
@@ -52234,63 +52442,342 @@
       <c r="K84" s="19"/>
       <c r="L84" s="9"/>
     </row>
-    <row r="85" spans="1:12">
-      <c r="B85" s="10" t="s">
+    <row r="85" spans="2:12">
+      <c r="B85" s="8"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="9"/>
+      <c r="H85" s="8" t="s">
+        <v>3421</v>
+      </c>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="2:12">
+      <c r="B86" s="206" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="9"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="2:12">
+      <c r="B87" s="8" t="s">
+        <v>3414</v>
+      </c>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="9"/>
+      <c r="H87" s="206" t="s">
+        <v>3418</v>
+      </c>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="9"/>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="B88" s="8"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="9"/>
+      <c r="H88" s="8" t="s">
+        <v>3423</v>
+      </c>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="9"/>
+    </row>
+    <row r="89" spans="2:12">
+      <c r="B89" s="206" t="s">
+        <v>3415</v>
+      </c>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="9"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="9"/>
+    </row>
+    <row r="90" spans="2:12">
+      <c r="B90" s="8" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="9"/>
+      <c r="H90" s="8" t="s">
+        <v>3419</v>
+      </c>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19" t="s">
+        <v>3420</v>
+      </c>
+      <c r="K90" s="19"/>
+      <c r="L90" s="9"/>
+    </row>
+    <row r="91" spans="2:12">
+      <c r="B91" s="8"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="9"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="9"/>
+    </row>
+    <row r="92" spans="2:12">
+      <c r="B92" s="10" t="s">
         <v>3416</v>
       </c>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="11"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="26"/>
-      <c r="L85" s="11"/>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="B87" s="2" t="s">
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="11"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="11"/>
+    </row>
+    <row r="94" spans="2:12">
+      <c r="B94" s="2" t="s">
         <v>3426</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
-      <c r="C88" t="s">
+    <row r="95" spans="2:12">
+      <c r="C95" t="s">
         <v>3427</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
-      <c r="C89" t="s">
+    <row r="96" spans="2:12">
+      <c r="C96" t="s">
         <v>3428</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
-      <c r="C90" t="s">
+    <row r="97" spans="2:10">
+      <c r="C97" t="s">
         <v>3429</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="2" t="s">
+    <row r="100" spans="2:10">
+      <c r="B100" s="2" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="6" t="s">
+        <v>3437</v>
+      </c>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="8"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="9"/>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="8" t="s">
+        <v>3438</v>
+      </c>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="9"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="8"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="9"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="8" t="s">
+        <v>3436</v>
+      </c>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="9"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="8" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="9"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="9"/>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="8"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="9"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="10" t="s">
+        <v>3435</v>
+      </c>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="145" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="6" t="s">
+        <v>3446</v>
+      </c>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="7"/>
+      <c r="G112" s="6" t="s">
+        <v>3445</v>
+      </c>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="7"/>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="B113" s="8"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="9"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="9"/>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="B114" s="8" t="s">
+        <v>3447</v>
+      </c>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="9"/>
+      <c r="G114" s="8" t="s">
+        <v>3442</v>
+      </c>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="9"/>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="B115" s="8"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="9"/>
+      <c r="G115" s="8" t="s">
+        <v>3444</v>
+      </c>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="9"/>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="B116" s="8" t="s">
+        <v>3443</v>
+      </c>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="9"/>
+      <c r="G116" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="9"/>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="B117" s="8"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="9"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="9"/>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="B118" s="8" t="s">
+        <v>3441</v>
+      </c>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="9"/>
+      <c r="G118" s="8" t="s">
+        <v>3443</v>
+      </c>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="9"/>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="B119" s="10"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="196" t="s">
+        <v>3211</v>
+      </c>
+      <c r="E119" s="11"/>
+      <c r="G119" s="10" t="s">
+        <v>3441</v>
+      </c>
+      <c r="H119" s="26"/>
+      <c r="I119" s="26"/>
+      <c r="J119" s="145" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="2" t="s">
         <v>2880</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
-      <c r="B93" t="s">
+    <row r="122" spans="1:10">
+      <c r="B122" s="2" t="s">
         <v>1718</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
-      <c r="C94" t="s">
+    <row r="123" spans="1:10">
+      <c r="C123" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="B124" s="2" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="C125" t="s">
         <v>3431</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="B95" t="s">
-        <v>3430</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="C96" t="s">
-        <v>3432</v>
       </c>
     </row>
   </sheetData>
